--- a/assignments/3-dynamics-interactivity-narrative/data/raw and working files/income.xlsx
+++ b/assignments/3-dynamics-interactivity-narrative/data/raw and working files/income.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,29 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlevinson/programs/parsons/major-studio-1/assignments/3-dynamics-interactivity-narrative/data/raw and working files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D14950A-4C79-EC4F-AE7E-739DBEAF70B6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F931084-FBC2-B948-973A-074B8A6912AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="27640" windowHeight="16180" activeTab="1"/>
+    <workbookView xWindow="1140" yWindow="460" windowWidth="27640" windowHeight="16180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="API_NY.ADJ.NNTY.PC.CD_DS2_en_cs" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="545">
   <si>
     <t>Data Source</t>
   </si>
@@ -1651,11 +1654,26 @@
   <si>
     <t>Sum of 2016</t>
   </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Ease</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Hong Kong, China</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2187,7 +2205,137 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2215,1536 +2363,23 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="all_cleaned_formulas"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="master_values"/>
+      <sheetName val="master_formulas"/>
+      <sheetName val="master_values_copy_to_CSV"/>
       <sheetName val="pivot"/>
+      <sheetName val="shorthand calcs"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>New Zealand</v>
-          </cell>
-          <cell r="B2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Singapore</v>
-          </cell>
-          <cell r="B3">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Denmark</v>
-          </cell>
-          <cell r="B4">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Hong Kong, China</v>
-          </cell>
-          <cell r="B5">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Korea, Rep.</v>
-          </cell>
-          <cell r="B6">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Norway</v>
-          </cell>
-          <cell r="B7">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>United Kingdom</v>
-          </cell>
-          <cell r="B8">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Sweden</v>
-          </cell>
-          <cell r="B9">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Macedonia, FYR</v>
-          </cell>
-          <cell r="B10">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Estonia</v>
-          </cell>
-          <cell r="B11">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Finland</v>
-          </cell>
-          <cell r="B12">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Latvia</v>
-          </cell>
-          <cell r="B13">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Australia</v>
-          </cell>
-          <cell r="B14">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Georgia</v>
-          </cell>
-          <cell r="B15">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Germany</v>
-          </cell>
-          <cell r="B16">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Ireland</v>
-          </cell>
-          <cell r="B17">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Austria</v>
-          </cell>
-          <cell r="B18">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Iceland</v>
-          </cell>
-          <cell r="B19">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Lithuania</v>
-          </cell>
-          <cell r="B20">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Canada</v>
-          </cell>
-          <cell r="B21">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Malaysia</v>
-          </cell>
-          <cell r="B22">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Poland</v>
-          </cell>
-          <cell r="B23">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Portugal</v>
-          </cell>
-          <cell r="B24">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>United Arab Emirates</v>
-          </cell>
-          <cell r="B25">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Czech Republic</v>
-          </cell>
-          <cell r="B26">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Netherlands</v>
-          </cell>
-          <cell r="B27">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>France</v>
-          </cell>
-          <cell r="B28">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Slovenia</v>
-          </cell>
-          <cell r="B29">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Switzerland</v>
-          </cell>
-          <cell r="B30">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Spain</v>
-          </cell>
-          <cell r="B31">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Slovak Republic</v>
-          </cell>
-          <cell r="B32">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Japan</v>
-          </cell>
-          <cell r="B33">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Kazakhstan</v>
-          </cell>
-          <cell r="B34">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Romania</v>
-          </cell>
-          <cell r="B35">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Belarus</v>
-          </cell>
-          <cell r="B36">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Armenia</v>
-          </cell>
-          <cell r="B37">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>Bulgaria</v>
-          </cell>
-          <cell r="B38">
-            <v>39</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>Russian Federation</v>
-          </cell>
-          <cell r="B39">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>Hungary</v>
-          </cell>
-          <cell r="B40">
-            <v>41</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>Belgium</v>
-          </cell>
-          <cell r="B41">
-            <v>42</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>Croatia</v>
-          </cell>
-          <cell r="B42">
-            <v>43</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>Moldova</v>
-          </cell>
-          <cell r="B43">
-            <v>44</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>Cyprus</v>
-          </cell>
-          <cell r="B44">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>Thailand</v>
-          </cell>
-          <cell r="B45">
-            <v>46</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>Mexico</v>
-          </cell>
-          <cell r="B46">
-            <v>47</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>Serbia</v>
-          </cell>
-          <cell r="B47">
-            <v>47</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>Mauritius</v>
-          </cell>
-          <cell r="B48">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>Italy</v>
-          </cell>
-          <cell r="B49">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>Montenegro</v>
-          </cell>
-          <cell r="B50">
-            <v>51</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="B51">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>Colombia</v>
-          </cell>
-          <cell r="B52">
-            <v>53</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>Peru</v>
-          </cell>
-          <cell r="B53">
-            <v>54</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>Puerto Rico</v>
-          </cell>
-          <cell r="B54">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>Chile</v>
-          </cell>
-          <cell r="B55">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>Albania</v>
-          </cell>
-          <cell r="B56">
-            <v>58</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>Luxembourg</v>
-          </cell>
-          <cell r="B57">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>Kosovo</v>
-          </cell>
-          <cell r="B58">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>Greece</v>
-          </cell>
-          <cell r="B59">
-            <v>61</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>Costa Rica</v>
-          </cell>
-          <cell r="B60">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>Bahrain</v>
-          </cell>
-          <cell r="B61">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>Mongolia</v>
-          </cell>
-          <cell r="B62">
-            <v>64</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>Azerbaijan</v>
-          </cell>
-          <cell r="B63">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>Oman</v>
-          </cell>
-          <cell r="B64">
-            <v>66</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>Jamaica</v>
-          </cell>
-          <cell r="B65">
-            <v>67</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>Turkey</v>
-          </cell>
-          <cell r="B66">
-            <v>69</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>Panama</v>
-          </cell>
-          <cell r="B67">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>Brunei Darussalam</v>
-          </cell>
-          <cell r="B68">
-            <v>72</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>Bhutan</v>
-          </cell>
-          <cell r="B69">
-            <v>73</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>Kyrgyz Republic</v>
-          </cell>
-          <cell r="B70">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>Malta</v>
-          </cell>
-          <cell r="B71">
-            <v>76</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72" t="str">
-            <v>China</v>
-          </cell>
-          <cell r="B72">
-            <v>78</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73" t="str">
-            <v>San Marino</v>
-          </cell>
-          <cell r="B73">
-            <v>79</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74" t="str">
-            <v>Ukraine</v>
-          </cell>
-          <cell r="B74">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75" t="str">
-            <v>Bosnia and Herzegovina</v>
-          </cell>
-          <cell r="B75">
-            <v>81</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76" t="str">
-            <v>Vietnam</v>
-          </cell>
-          <cell r="B76">
-            <v>82</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>Qatar</v>
-          </cell>
-          <cell r="B77">
-            <v>83</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78" t="str">
-            <v>Vanuatu</v>
-          </cell>
-          <cell r="B78">
-            <v>83</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79" t="str">
-            <v>Tonga</v>
-          </cell>
-          <cell r="B79">
-            <v>85</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80" t="str">
-            <v>St. Lucia</v>
-          </cell>
-          <cell r="B80">
-            <v>86</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81" t="str">
-            <v>Uzbekistan</v>
-          </cell>
-          <cell r="B81">
-            <v>87</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82" t="str">
-            <v>Guatemala</v>
-          </cell>
-          <cell r="B82">
-            <v>88</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83" t="str">
-            <v>Samoa</v>
-          </cell>
-          <cell r="B83">
-            <v>89</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84" t="str">
-            <v>Uruguay</v>
-          </cell>
-          <cell r="B84">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85" t="str">
-            <v>Indonesia</v>
-          </cell>
-          <cell r="B85">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86" t="str">
-            <v>Seychelles</v>
-          </cell>
-          <cell r="B86">
-            <v>93</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87" t="str">
-            <v>Saudi Arabia</v>
-          </cell>
-          <cell r="B87">
-            <v>94</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88" t="str">
-            <v>El Salvador</v>
-          </cell>
-          <cell r="B88">
-            <v>95</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89" t="str">
-            <v>Trinidad and Tobago</v>
-          </cell>
-          <cell r="B89">
-            <v>96</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90" t="str">
-            <v>Fiji</v>
-          </cell>
-          <cell r="B90">
-            <v>97</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91" t="str">
-            <v>Philippines</v>
-          </cell>
-          <cell r="B91">
-            <v>99</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92" t="str">
-            <v>Dominica</v>
-          </cell>
-          <cell r="B92">
-            <v>101</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93" t="str">
-            <v>Kuwait</v>
-          </cell>
-          <cell r="B93">
-            <v>102</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94" t="str">
-            <v>Dominican Republic</v>
-          </cell>
-          <cell r="B94">
-            <v>103</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95" t="str">
-            <v>Solomon Islands</v>
-          </cell>
-          <cell r="B95">
-            <v>104</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96" t="str">
-            <v>Honduras</v>
-          </cell>
-          <cell r="B96">
-            <v>105</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97" t="str">
-            <v>Paraguay</v>
-          </cell>
-          <cell r="B97">
-            <v>106</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98" t="str">
-            <v>Nepal</v>
-          </cell>
-          <cell r="B98">
-            <v>107</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99" t="str">
-            <v>Sri Lanka</v>
-          </cell>
-          <cell r="B99">
-            <v>110</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100" t="str">
-            <v>Belize</v>
-          </cell>
-          <cell r="B100">
-            <v>112</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101" t="str">
-            <v>Antigua and Barbuda</v>
-          </cell>
-          <cell r="B101">
-            <v>113</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102" t="str">
-            <v>Ecuador</v>
-          </cell>
-          <cell r="B102">
-            <v>114</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103" t="str">
-            <v>Argentina</v>
-          </cell>
-          <cell r="B103">
-            <v>116</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104" t="str">
-            <v>Barbados</v>
-          </cell>
-          <cell r="B104">
-            <v>117</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105" t="str">
-            <v>Jordan</v>
-          </cell>
-          <cell r="B105">
-            <v>118</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106" t="str">
-            <v>Papua New Guinea</v>
-          </cell>
-          <cell r="B106">
-            <v>119</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107" t="str">
-            <v>Iran, Islamic Rep.</v>
-          </cell>
-          <cell r="B107">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108" t="str">
-            <v>Bahamas, The</v>
-          </cell>
-          <cell r="B108">
-            <v>121</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109" t="str">
-            <v>Brazil</v>
-          </cell>
-          <cell r="B109">
-            <v>123</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110" t="str">
-            <v>Guyana</v>
-          </cell>
-          <cell r="B110">
-            <v>124</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111" t="str">
-            <v>St. Vincent and the Grenadines</v>
-          </cell>
-          <cell r="B111">
-            <v>125</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112" t="str">
-            <v>Lebanon</v>
-          </cell>
-          <cell r="B112">
-            <v>126</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113" t="str">
-            <v>Nicaragua</v>
-          </cell>
-          <cell r="B113">
-            <v>127</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114" t="str">
-            <v>Tajikistan</v>
-          </cell>
-          <cell r="B114">
-            <v>128</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115" t="str">
-            <v>Cabo Verde</v>
-          </cell>
-          <cell r="B115">
-            <v>129</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116" t="str">
-            <v>India</v>
-          </cell>
-          <cell r="B116">
-            <v>130</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117" t="str">
-            <v>Cambodia</v>
-          </cell>
-          <cell r="B117">
-            <v>131</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118" t="str">
-            <v>South Sudan</v>
-          </cell>
-          <cell r="B118">
-            <v>186</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119" t="str">
-            <v>St. Kitts and Nevis</v>
-          </cell>
-          <cell r="B119">
-            <v>134</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120" t="str">
-            <v>Maldives</v>
-          </cell>
-          <cell r="B120">
-            <v>135</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121" t="str">
-            <v>Palau</v>
-          </cell>
-          <cell r="B121">
-            <v>136</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122" t="str">
-            <v>Grenada</v>
-          </cell>
-          <cell r="B122">
-            <v>138</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123" t="str">
-            <v>Lao PDR</v>
-          </cell>
-          <cell r="B123">
-            <v>139</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124" t="str">
-            <v>West Bank and Gaza</v>
-          </cell>
-          <cell r="B124">
-            <v>140</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125" t="str">
-            <v>Marshall Islands</v>
-          </cell>
-          <cell r="B125">
-            <v>143</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126" t="str">
-            <v>Pakistan</v>
-          </cell>
-          <cell r="B126">
-            <v>144</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127" t="str">
-            <v>Bolivia</v>
-          </cell>
-          <cell r="B127">
-            <v>149</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128" t="str">
-            <v>Micronesia, Fed. Sts.</v>
-          </cell>
-          <cell r="B128">
-            <v>151</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129" t="str">
-            <v>Kiribati</v>
-          </cell>
-          <cell r="B129">
-            <v>152</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130" t="str">
-            <v>Comoros</v>
-          </cell>
-          <cell r="B130">
-            <v>153</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131" t="str">
-            <v>Suriname</v>
-          </cell>
-          <cell r="B131">
-            <v>158</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132" t="str">
-            <v>Sao Tome and Principe</v>
-          </cell>
-          <cell r="B132">
-            <v>162</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133" t="str">
-            <v>Iraq</v>
-          </cell>
-          <cell r="B133">
-            <v>165</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134" t="str">
-            <v>Myanmar</v>
-          </cell>
-          <cell r="B134">
-            <v>170</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135" t="str">
-            <v>Syrian Arab Republic</v>
-          </cell>
-          <cell r="B135">
-            <v>173</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136" t="str">
-            <v>Timor-Leste</v>
-          </cell>
-          <cell r="B136">
-            <v>175</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137" t="str">
-            <v>Bangladesh</v>
-          </cell>
-          <cell r="B137">
-            <v>176</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138" t="str">
-            <v>Yemen, Rep.</v>
-          </cell>
-          <cell r="B138">
-            <v>179</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139" t="str">
-            <v>Haiti</v>
-          </cell>
-          <cell r="B139">
-            <v>181</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140" t="str">
-            <v>Afghanistan</v>
-          </cell>
-          <cell r="B140">
-            <v>183</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141" t="str">
-            <v>Venezuela, RB</v>
-          </cell>
-          <cell r="B141">
-            <v>187</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142" t="str">
-            <v>United States</v>
-          </cell>
-          <cell r="B142">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143" t="str">
-            <v>Sudan</v>
-          </cell>
-          <cell r="B143">
-            <v>168</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144" t="str">
-            <v>South Africa</v>
-          </cell>
-          <cell r="B144">
-            <v>74</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145" t="str">
-            <v>Egypt, Arab Rep.</v>
-          </cell>
-          <cell r="B145">
-            <v>122</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146" t="str">
-            <v>Tanzania</v>
-          </cell>
-          <cell r="B146">
-            <v>132</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147" t="str">
-            <v>Algeria</v>
-          </cell>
-          <cell r="B147">
-            <v>156</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148" t="str">
-            <v>Somalia</v>
-          </cell>
-          <cell r="B148">
-            <v>190</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149" t="str">
-            <v>Namibia</v>
-          </cell>
-          <cell r="B149">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150" t="str">
-            <v>Ethiopia</v>
-          </cell>
-          <cell r="B150">
-            <v>159</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151" t="str">
-            <v>Kenya</v>
-          </cell>
-          <cell r="B151">
-            <v>92</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152" t="str">
-            <v>Nigeria</v>
-          </cell>
-          <cell r="B152">
-            <v>169</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153" t="str">
-            <v>Chad</v>
-          </cell>
-          <cell r="B153">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154" t="str">
-            <v>Libya</v>
-          </cell>
-          <cell r="B154">
-            <v>188</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155" t="str">
-            <v>Zambia</v>
-          </cell>
-          <cell r="B155">
-            <v>98</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156" t="str">
-            <v>Morocco</v>
-          </cell>
-          <cell r="B156">
-            <v>68</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157" t="str">
-            <v>Zimbabwe</v>
-          </cell>
-          <cell r="B157">
-            <v>161</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158" t="str">
-            <v>Central African Republic</v>
-          </cell>
-          <cell r="B158">
-            <v>185</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159" t="str">
-            <v>Niger</v>
-          </cell>
-          <cell r="B159">
-            <v>150</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160" t="str">
-            <v>Botswana</v>
-          </cell>
-          <cell r="B160">
-            <v>71</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161" t="str">
-            <v>Mozambique</v>
-          </cell>
-          <cell r="B161">
-            <v>137</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162" t="str">
-            <v>Mauritania</v>
-          </cell>
-          <cell r="B162">
-            <v>160</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163" t="str">
-            <v>Angola</v>
-          </cell>
-          <cell r="B163">
-            <v>182</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164" t="str">
-            <v>Uganda</v>
-          </cell>
-          <cell r="B164">
-            <v>115</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165" t="str">
-            <v>Cameroon</v>
-          </cell>
-          <cell r="B165">
-            <v>166</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166" t="str">
-            <v>Senegal</v>
-          </cell>
-          <cell r="B166">
-            <v>147</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167" t="str">
-            <v>Tunisia</v>
-          </cell>
-          <cell r="B167">
-            <v>77</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168" t="str">
-            <v>Eritrea</v>
-          </cell>
-          <cell r="B168">
-            <v>189</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169" t="str">
-            <v>Guinea-Bissau</v>
-          </cell>
-          <cell r="B169">
-            <v>172</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170" t="str">
-            <v>Malawi</v>
-          </cell>
-          <cell r="B170">
-            <v>133</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171" t="str">
-            <v>Cote d'Ivoire</v>
-          </cell>
-          <cell r="B171">
-            <v>142</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172" t="str">
-            <v>Burkina Faso</v>
-          </cell>
-          <cell r="B172">
-            <v>146</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173" t="str">
-            <v>Mali</v>
-          </cell>
-          <cell r="B173">
-            <v>141</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174" t="str">
-            <v>Congo, Dem. Rep.</v>
-          </cell>
-          <cell r="B174">
-            <v>184</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175" t="str">
-            <v>Ghana</v>
-          </cell>
-          <cell r="B175">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176" t="str">
-            <v>Congo, Rep.</v>
-          </cell>
-          <cell r="B176">
-            <v>177</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177" t="str">
-            <v>Guinea</v>
-          </cell>
-          <cell r="B177">
-            <v>163</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178" t="str">
-            <v>Gabon</v>
-          </cell>
-          <cell r="B178">
-            <v>164</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179" t="str">
-            <v>Benin</v>
-          </cell>
-          <cell r="B179">
-            <v>155</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180" t="str">
-            <v>Djibouti</v>
-          </cell>
-          <cell r="B180">
-            <v>171</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181" t="str">
-            <v>Lesotho</v>
-          </cell>
-          <cell r="B181">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182" t="str">
-            <v>Madagascar</v>
-          </cell>
-          <cell r="B182">
-            <v>167</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183" t="str">
-            <v>Sierra Leone</v>
-          </cell>
-          <cell r="B183">
-            <v>148</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184" t="str">
-            <v>Rwanda</v>
-          </cell>
-          <cell r="B184">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185" t="str">
-            <v>Burundi</v>
-          </cell>
-          <cell r="B185">
-            <v>157</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186" t="str">
-            <v>Eswatini</v>
-          </cell>
-          <cell r="B186">
-            <v>111</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187" t="str">
-            <v>Togo</v>
-          </cell>
-          <cell r="B187">
-            <v>154</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188" t="str">
-            <v>Gambia, The</v>
-          </cell>
-          <cell r="B188">
-            <v>145</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189" t="str">
-            <v>Equatorial Guinea</v>
-          </cell>
-          <cell r="B189">
-            <v>178</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190" t="str">
-            <v>Liberia</v>
-          </cell>
-          <cell r="B190">
-            <v>174</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andrew Levinson" refreshedDate="43412.576944907407" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="264">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Andrew Levinson" refreshedDate="43412.576944907407" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="264" xr:uid="{00000000-000A-0000-FFFF-FFFF1E000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:BJ269" sheet="API_NY.ADJ.NNTY.PC.CD_DS2_en_cs"/>
   </cacheSource>
@@ -21111,7 +19746,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B268" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="62">
     <pivotField axis="axisRow" showAll="0">
@@ -22559,7 +21194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24588,14 +23223,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BK269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="60" ySplit="5" topLeftCell="BJ6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="60" ySplit="5" topLeftCell="BI6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="BI1" sqref="BI1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BL16" sqref="BL16"/>
+      <selection pane="bottomRight" activeCell="BM10" sqref="BM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24936,9 +23571,9 @@
       <c r="BI6" s="5">
         <v>63377.625945812099</v>
       </c>
-      <c r="BK6">
-        <f>VLOOKUP(A6,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>31</v>
+      <c r="BK6" t="e">
+        <f>VLOOKUP(A6,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.2">
@@ -25095,9 +23730,9 @@
       <c r="BI7" s="5">
         <v>57982.863295516698</v>
       </c>
-      <c r="BK7">
-        <f>VLOOKUP(A7,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>6</v>
+      <c r="BK7" t="e">
+        <f>VLOOKUP(A7,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.2">
@@ -25254,9 +23889,9 @@
       <c r="BI8" s="5">
         <v>56303.489596035302</v>
       </c>
-      <c r="BK8">
-        <f>VLOOKUP(A8,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>59</v>
+      <c r="BK8" t="e">
+        <f>VLOOKUP(A8,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.2">
@@ -25290,9 +23925,9 @@
       <c r="BI9" s="5">
         <v>52292.770737144201</v>
       </c>
-      <c r="BK9">
-        <f>VLOOKUP(A9,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>20</v>
+      <c r="BK9" t="e">
+        <f>VLOOKUP(A9,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.2">
@@ -25449,9 +24084,9 @@
       <c r="BI10" s="5">
         <v>49574.325009535198</v>
       </c>
-      <c r="BK10">
-        <f>VLOOKUP(A10,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>8</v>
+      <c r="BK10" t="e">
+        <f>VLOOKUP(A10,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.2">
@@ -25609,8 +24244,8 @@
         <v>48039.131005802199</v>
       </c>
       <c r="BK11" t="e">
-        <f>VLOOKUP(A11,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A11,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.2">
@@ -25767,9 +24402,9 @@
       <c r="BI12" s="5">
         <v>45727.889969596399</v>
       </c>
-      <c r="BK12">
-        <f>VLOOKUP(A12,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>3</v>
+      <c r="BK12" t="e">
+        <f>VLOOKUP(A12,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.2">
@@ -25926,9 +24561,9 @@
       <c r="BI13" s="5">
         <v>44237.727846859001</v>
       </c>
-      <c r="BK13">
-        <f>VLOOKUP(A13,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>9</v>
+      <c r="BK13" t="e">
+        <f>VLOOKUP(A13,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.2">
@@ -26082,9 +24717,9 @@
       <c r="BI14" s="5">
         <v>43518.500634789802</v>
       </c>
-      <c r="BK14">
-        <f>VLOOKUP(A14,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>2</v>
+      <c r="BK14" t="e">
+        <f>VLOOKUP(A14,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.2">
@@ -26241,9 +24876,9 @@
       <c r="BI15" s="5">
         <v>38859.3225834615</v>
       </c>
-      <c r="BK15">
-        <f>VLOOKUP(A15,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>15</v>
+      <c r="BK15" t="e">
+        <f>VLOOKUP(A15,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.2">
@@ -26400,9 +25035,9 @@
       <c r="BI16" s="5">
         <v>37783.765847069903</v>
       </c>
-      <c r="BK16">
-        <f>VLOOKUP(A16,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>18</v>
+      <c r="BK16" t="e">
+        <f>VLOOKUP(A16,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.2">
@@ -26559,9 +25194,9 @@
       <c r="BI17" s="5">
         <v>37534.311226350801</v>
       </c>
-      <c r="BK17">
-        <f>VLOOKUP(A17,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>28</v>
+      <c r="BK17" t="e">
+        <f>VLOOKUP(A17,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.2">
@@ -26718,9 +25353,9 @@
       <c r="BI18" s="5">
         <v>36635.901913338603</v>
       </c>
-      <c r="BK18">
-        <f>VLOOKUP(A18,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>19</v>
+      <c r="BK18" t="e">
+        <f>VLOOKUP(A18,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.2">
@@ -26877,9 +25512,9 @@
       <c r="BI19" s="5">
         <v>35599.952653218403</v>
       </c>
-      <c r="BK19">
-        <f>VLOOKUP(A19,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>13</v>
+      <c r="BK19" t="e">
+        <f>VLOOKUP(A19,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="1:63" x14ac:dyDescent="0.2">
@@ -27036,9 +25671,9 @@
       <c r="BI20" s="5">
         <v>35517.598979001501</v>
       </c>
-      <c r="BK20">
-        <f>VLOOKUP(A20,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>17</v>
+      <c r="BK20" t="e">
+        <f>VLOOKUP(A20,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.2">
@@ -27102,9 +25737,9 @@
       <c r="BI21" s="5">
         <v>34579.6695873317</v>
       </c>
-      <c r="BK21">
-        <f>VLOOKUP(A21,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>26</v>
+      <c r="BK21" t="e">
+        <f>VLOOKUP(A21,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.2">
@@ -27261,9 +25896,9 @@
       <c r="BI22" s="5">
         <v>34229.193628421497</v>
       </c>
-      <c r="BK22">
-        <f>VLOOKUP(A22,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>22</v>
+      <c r="BK22" t="e">
+        <f>VLOOKUP(A22,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.2">
@@ -27421,8 +26056,8 @@
         <v>34217.909245757903</v>
       </c>
       <c r="BK23" t="e">
-        <f>VLOOKUP(A23,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A23,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="1:63" x14ac:dyDescent="0.2">
@@ -27579,9 +26214,9 @@
       <c r="BI24" s="5">
         <v>34167.086794531802</v>
       </c>
-      <c r="BK24">
-        <f>VLOOKUP(A24,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>7</v>
+      <c r="BK24" t="e">
+        <f>VLOOKUP(A24,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.2">
@@ -27738,9 +26373,9 @@
       <c r="BI25" s="5">
         <v>33307.821867450199</v>
       </c>
-      <c r="BK25">
-        <f>VLOOKUP(A25,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>42</v>
+      <c r="BK25" t="e">
+        <f>VLOOKUP(A25,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="1:63" x14ac:dyDescent="0.2">
@@ -27898,8 +26533,8 @@
         <v>32990.464717059302</v>
       </c>
       <c r="BK26" t="e">
-        <f>VLOOKUP(A26,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A26,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.2">
@@ -28053,9 +26688,9 @@
       <c r="BI27" s="5">
         <v>32271.0717051879</v>
       </c>
-      <c r="BK27">
-        <f>VLOOKUP(A27,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>1</v>
+      <c r="BK27" t="e">
+        <f>VLOOKUP(A27,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="1:63" x14ac:dyDescent="0.2">
@@ -28212,9 +26847,9 @@
       <c r="BI28" s="5">
         <v>31884.847077955801</v>
       </c>
-      <c r="BK28">
-        <f>VLOOKUP(A28,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>52</v>
+      <c r="BK28" t="e">
+        <f>VLOOKUP(A28,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="29" spans="1:63" x14ac:dyDescent="0.2">
@@ -28371,9 +27006,9 @@
       <c r="BI29" s="5">
         <v>31117.799014409498</v>
       </c>
-      <c r="BK29">
-        <f>VLOOKUP(A29,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>34</v>
+      <c r="BK29" t="e">
+        <f>VLOOKUP(A29,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="1:63" x14ac:dyDescent="0.2">
@@ -28530,9 +27165,9 @@
       <c r="BI30" s="5">
         <v>30815.896934692199</v>
       </c>
-      <c r="BK30">
-        <f>VLOOKUP(A30,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>29</v>
+      <c r="BK30" t="e">
+        <f>VLOOKUP(A30,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="31" spans="1:63" x14ac:dyDescent="0.2">
@@ -28690,8 +27325,8 @@
         <v>30741.4971714079</v>
       </c>
       <c r="BK31" t="e">
-        <f>VLOOKUP(A31,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A31,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="32" spans="1:63" x14ac:dyDescent="0.2">
@@ -28849,8 +27484,8 @@
         <v>28768.427841282901</v>
       </c>
       <c r="BK32" t="e">
-        <f>VLOOKUP(A32,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A32,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="1:63" x14ac:dyDescent="0.2">
@@ -29008,8 +27643,8 @@
         <v>26614.184352972101</v>
       </c>
       <c r="BK33" t="e">
-        <f>VLOOKUP(A33,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A33,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="1:63" x14ac:dyDescent="0.2">
@@ -29166,9 +27801,9 @@
       <c r="BI34" s="5">
         <v>25262.384612039699</v>
       </c>
-      <c r="BK34">
-        <f>VLOOKUP(A34,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>50</v>
+      <c r="BK34" t="e">
+        <f>VLOOKUP(A34,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="35" spans="1:63" x14ac:dyDescent="0.2">
@@ -29313,9 +27948,9 @@
       <c r="BI35" s="5">
         <v>24852.106519989698</v>
       </c>
-      <c r="BK35">
-        <f>VLOOKUP(A35,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>102</v>
+      <c r="BK35" t="e">
+        <f>VLOOKUP(A35,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="36" spans="1:63" x14ac:dyDescent="0.2">
@@ -29415,9 +28050,9 @@
       <c r="BI36" s="5">
         <v>24809.207857172602</v>
       </c>
-      <c r="BK36">
-        <f>VLOOKUP(A36,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>72</v>
+      <c r="BK36" t="e">
+        <f>VLOOKUP(A36,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="37" spans="1:63" x14ac:dyDescent="0.2">
@@ -29544,9 +28179,9 @@
       <c r="BI37" s="5">
         <v>24603.4414118227</v>
       </c>
-      <c r="BK37">
-        <f>VLOOKUP(A37,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>121</v>
+      <c r="BK37" t="e">
+        <f>VLOOKUP(A37,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="38" spans="1:63" x14ac:dyDescent="0.2">
@@ -29700,9 +28335,9 @@
       <c r="BI38" s="5">
         <v>22172.113067230599</v>
       </c>
-      <c r="BK38">
-        <f>VLOOKUP(A38,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>5</v>
+      <c r="BK38" t="e">
+        <f>VLOOKUP(A38,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="39" spans="1:63" x14ac:dyDescent="0.2">
@@ -29859,9 +28494,9 @@
       <c r="BI39" s="5">
         <v>21836.003888478601</v>
       </c>
-      <c r="BK39">
-        <f>VLOOKUP(A39,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>32</v>
+      <c r="BK39" t="e">
+        <f>VLOOKUP(A39,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="40" spans="1:63" x14ac:dyDescent="0.2">
@@ -29988,9 +28623,9 @@
       <c r="BI40" s="5">
         <v>18906.705141207</v>
       </c>
-      <c r="BK40">
-        <f>VLOOKUP(A40,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>63</v>
+      <c r="BK40" t="e">
+        <f>VLOOKUP(A40,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="41" spans="1:63" x14ac:dyDescent="0.2">
@@ -30148,8 +28783,8 @@
         <v>18252.431833657101</v>
       </c>
       <c r="BK41" t="e">
-        <f>VLOOKUP(A41,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A41,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="42" spans="1:63" x14ac:dyDescent="0.2">
@@ -30306,9 +28941,9 @@
       <c r="BI42" s="5">
         <v>16720.895676197499</v>
       </c>
-      <c r="BK42">
-        <f>VLOOKUP(A42,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>94</v>
+      <c r="BK42" t="e">
+        <f>VLOOKUP(A42,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="43" spans="1:63" x14ac:dyDescent="0.2">
@@ -30390,9 +29025,9 @@
       <c r="BI43" s="5">
         <v>16640.1165260546</v>
       </c>
-      <c r="BK43">
-        <f>VLOOKUP(A43,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>30</v>
+      <c r="BK43" t="e">
+        <f>VLOOKUP(A43,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="1:63" x14ac:dyDescent="0.2">
@@ -30549,9 +29184,9 @@
       <c r="BI44" s="5">
         <v>16032.518465338</v>
       </c>
-      <c r="BK44">
-        <f>VLOOKUP(A44,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>25</v>
+      <c r="BK44" t="e">
+        <f>VLOOKUP(A44,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="45" spans="1:63" x14ac:dyDescent="0.2">
@@ -30618,9 +29253,9 @@
       <c r="BI45" s="5">
         <v>14570.4090879168</v>
       </c>
-      <c r="BK45">
-        <f>VLOOKUP(A45,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>12</v>
+      <c r="BK45" t="e">
+        <f>VLOOKUP(A45,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="46" spans="1:63" x14ac:dyDescent="0.2">
@@ -30777,9 +29412,9 @@
       <c r="BI46" s="5">
         <v>14275.272380061801</v>
       </c>
-      <c r="BK46">
-        <f>VLOOKUP(A46,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>61</v>
+      <c r="BK46" t="e">
+        <f>VLOOKUP(A46,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="47" spans="1:63" x14ac:dyDescent="0.2">
@@ -30876,9 +29511,9 @@
       <c r="BI47" s="5">
         <v>13396.9264709239</v>
       </c>
-      <c r="BK47">
-        <f>VLOOKUP(A47,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>117</v>
+      <c r="BK47" t="e">
+        <f>VLOOKUP(A47,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="48" spans="1:63" x14ac:dyDescent="0.2">
@@ -31032,9 +29667,9 @@
       <c r="BI48" s="5">
         <v>13113.635508245899</v>
       </c>
-      <c r="BK48">
-        <f>VLOOKUP(A48,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>90</v>
+      <c r="BK48" t="e">
+        <f>VLOOKUP(A48,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="49" spans="1:63" x14ac:dyDescent="0.2">
@@ -31191,9 +29826,9 @@
       <c r="BI49" s="5">
         <v>12968.912747353799</v>
       </c>
-      <c r="BK49">
-        <f>VLOOKUP(A49,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>96</v>
+      <c r="BK49" t="e">
+        <f>VLOOKUP(A49,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="50" spans="1:63" x14ac:dyDescent="0.2">
@@ -31275,9 +29910,9 @@
       <c r="BI50" s="5">
         <v>12869.916239778</v>
       </c>
-      <c r="BK50">
-        <f>VLOOKUP(A50,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>33</v>
+      <c r="BK50" t="e">
+        <f>VLOOKUP(A50,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="51" spans="1:63" x14ac:dyDescent="0.2">
@@ -31374,9 +30009,9 @@
       <c r="BI51" s="5">
         <v>12716.2874580588</v>
       </c>
-      <c r="BK51">
-        <f>VLOOKUP(A51,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>93</v>
+      <c r="BK51" t="e">
+        <f>VLOOKUP(A51,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="52" spans="1:63" x14ac:dyDescent="0.2">
@@ -31458,9 +30093,9 @@
       <c r="BI52" s="5">
         <v>12325.4329378206</v>
       </c>
-      <c r="BK52">
-        <f>VLOOKUP(A52,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>21</v>
+      <c r="BK52" t="e">
+        <f>VLOOKUP(A52,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="53" spans="1:63" x14ac:dyDescent="0.2">
@@ -31614,9 +30249,9 @@
       <c r="BI53" s="5">
         <v>11446.6315879537</v>
       </c>
-      <c r="BK53">
-        <f>VLOOKUP(A53,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>70</v>
+      <c r="BK53" t="e">
+        <f>VLOOKUP(A53,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="54" spans="1:63" x14ac:dyDescent="0.2">
@@ -31698,9 +30333,9 @@
       <c r="BI54" s="5">
         <v>10891.137924886099</v>
       </c>
-      <c r="BK54">
-        <f>VLOOKUP(A54,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>14</v>
+      <c r="BK54" t="e">
+        <f>VLOOKUP(A54,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="55" spans="1:63" x14ac:dyDescent="0.2">
@@ -31857,9 +30492,9 @@
       <c r="BI55" s="5">
         <v>10860.154428547799</v>
       </c>
-      <c r="BK55">
-        <f>VLOOKUP(A55,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>57</v>
+      <c r="BK55" t="e">
+        <f>VLOOKUP(A55,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="56" spans="1:63" x14ac:dyDescent="0.2">
@@ -32016,9 +30651,9 @@
       <c r="BI56" s="5">
         <v>10729.8648818168</v>
       </c>
-      <c r="BK56">
-        <f>VLOOKUP(A56,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>116</v>
+      <c r="BK56" t="e">
+        <f>VLOOKUP(A56,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:63" x14ac:dyDescent="0.2">
@@ -32112,9 +30747,9 @@
       <c r="BI57" s="5">
         <v>10463.1121805653</v>
       </c>
-      <c r="BK57">
-        <f>VLOOKUP(A57,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>24</v>
+      <c r="BK57" t="e">
+        <f>VLOOKUP(A57,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="58" spans="1:63" x14ac:dyDescent="0.2">
@@ -32268,9 +30903,9 @@
       <c r="BI58" s="5">
         <v>10441.633558691099</v>
       </c>
-      <c r="BK58">
-        <f>VLOOKUP(A58,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>62</v>
+      <c r="BK58" t="e">
+        <f>VLOOKUP(A58,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="59" spans="1:63" x14ac:dyDescent="0.2">
@@ -32359,8 +30994,8 @@
         <v>10143.096799041199</v>
       </c>
       <c r="BK59" t="e">
-        <f>VLOOKUP(A59,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A59,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="60" spans="1:63" x14ac:dyDescent="0.2">
@@ -32448,9 +31083,9 @@
       <c r="BI60" s="5">
         <v>9991.2385628384709</v>
       </c>
-      <c r="BK60">
-        <f>VLOOKUP(A60,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>41</v>
+      <c r="BK60" t="e">
+        <f>VLOOKUP(A60,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="61" spans="1:63" x14ac:dyDescent="0.2">
@@ -32532,9 +31167,9 @@
       <c r="BI61" s="5">
         <v>9685.7290665643395</v>
       </c>
-      <c r="BK61">
-        <f>VLOOKUP(A61,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>43</v>
+      <c r="BK61" t="e">
+        <f>VLOOKUP(A61,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="62" spans="1:63" x14ac:dyDescent="0.2">
@@ -32646,9 +31281,9 @@
       <c r="BI62" s="5">
         <v>9517.7990044542894</v>
       </c>
-      <c r="BK62">
-        <f>VLOOKUP(A62,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>135</v>
+      <c r="BK62" t="e">
+        <f>VLOOKUP(A62,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="63" spans="1:63" x14ac:dyDescent="0.2">
@@ -32805,9 +31440,9 @@
       <c r="BI63" s="5">
         <v>9064.5320516790907</v>
       </c>
-      <c r="BK63">
-        <f>VLOOKUP(A63,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>69</v>
+      <c r="BK63" t="e">
+        <f>VLOOKUP(A63,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="64" spans="1:63" x14ac:dyDescent="0.2">
@@ -32872,8 +31507,8 @@
         <v>9041.5304530664507</v>
       </c>
       <c r="BK64" t="e">
-        <f>VLOOKUP(A64,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A64,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="65" spans="1:63" x14ac:dyDescent="0.2">
@@ -33031,8 +31666,8 @@
         <v>8413.5051740835206</v>
       </c>
       <c r="BK65" t="e">
-        <f>VLOOKUP(A65,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A65,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="66" spans="1:63" x14ac:dyDescent="0.2">
@@ -33171,9 +31806,9 @@
       <c r="BI66" s="5">
         <v>7896.1609327702499</v>
       </c>
-      <c r="BK66">
-        <f>VLOOKUP(A66,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>49</v>
+      <c r="BK66" t="e">
+        <f>VLOOKUP(A66,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="67" spans="1:63" x14ac:dyDescent="0.2">
@@ -33331,8 +31966,8 @@
         <v>7783.2455277689096</v>
       </c>
       <c r="BK67" t="e">
-        <f>VLOOKUP(A67,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A67,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="68" spans="1:63" x14ac:dyDescent="0.2">
@@ -33460,8 +32095,8 @@
         <v>7517.9750682588301</v>
       </c>
       <c r="BK68" t="e">
-        <f>VLOOKUP(A68,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A68,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="69" spans="1:63" x14ac:dyDescent="0.2">
@@ -33588,9 +32223,9 @@
       <c r="BI69" s="5">
         <v>7492.1904831656302</v>
       </c>
-      <c r="BK69">
-        <f>VLOOKUP(A69,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>86</v>
+      <c r="BK69" t="e">
+        <f>VLOOKUP(A69,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="70" spans="1:63" x14ac:dyDescent="0.2">
@@ -33747,9 +32382,9 @@
       <c r="BI70" s="5">
         <v>7477.4564946589298</v>
       </c>
-      <c r="BK70">
-        <f>VLOOKUP(A70,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>23</v>
+      <c r="BK70" t="e">
+        <f>VLOOKUP(A70,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="71" spans="1:63" x14ac:dyDescent="0.2">
@@ -33849,9 +32484,9 @@
       <c r="BI71" s="5">
         <v>7427.88583051362</v>
       </c>
-      <c r="BK71">
-        <f>VLOOKUP(A71,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>36</v>
+      <c r="BK71" t="e">
+        <f>VLOOKUP(A71,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="72" spans="1:63" x14ac:dyDescent="0.2">
@@ -34008,9 +32643,9 @@
       <c r="BI72" s="5">
         <v>7352.1566435306304</v>
       </c>
-      <c r="BK72">
-        <f>VLOOKUP(A72,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>123</v>
+      <c r="BK72" t="e">
+        <f>VLOOKUP(A72,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="73" spans="1:63" x14ac:dyDescent="0.2">
@@ -34168,8 +32803,8 @@
         <v>7028.5150057110104</v>
       </c>
       <c r="BK73" t="e">
-        <f>VLOOKUP(A73,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A73,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="74" spans="1:63" x14ac:dyDescent="0.2">
@@ -34327,8 +32962,8 @@
         <v>6981.0013558430001</v>
       </c>
       <c r="BK74" t="e">
-        <f>VLOOKUP(A74,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A74,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="75" spans="1:63" x14ac:dyDescent="0.2">
@@ -34485,9 +33120,9 @@
       <c r="BI75" s="5">
         <v>6971.0919916989396</v>
       </c>
-      <c r="BK75">
-        <f>VLOOKUP(A75,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>47</v>
+      <c r="BK75" t="e">
+        <f>VLOOKUP(A75,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="76" spans="1:63" x14ac:dyDescent="0.2">
@@ -34587,9 +33222,9 @@
       <c r="BI76" s="5">
         <v>6598.6509934262203</v>
       </c>
-      <c r="BK76">
-        <f>VLOOKUP(A76,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>126</v>
+      <c r="BK76" t="e">
+        <f>VLOOKUP(A76,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="77" spans="1:63" x14ac:dyDescent="0.2">
@@ -34747,8 +33382,8 @@
         <v>6437.5513069703902</v>
       </c>
       <c r="BK77" t="e">
-        <f>VLOOKUP(A77,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A77,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="78" spans="1:63" x14ac:dyDescent="0.2">
@@ -34906,8 +33541,8 @@
         <v>6407.3918594018196</v>
       </c>
       <c r="BK78" t="e">
-        <f>VLOOKUP(A78,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A78,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="79" spans="1:63" x14ac:dyDescent="0.2">
@@ -35034,9 +33669,9 @@
       <c r="BI79" s="5">
         <v>6326.0751042320799</v>
       </c>
-      <c r="BK79">
-        <f>VLOOKUP(A79,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>39</v>
+      <c r="BK79" t="e">
+        <f>VLOOKUP(A79,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="80" spans="1:63" x14ac:dyDescent="0.2">
@@ -35193,9 +33828,9 @@
       <c r="BI80" s="5">
         <v>6309.00158417283</v>
       </c>
-      <c r="BK80">
-        <f>VLOOKUP(A80,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>78</v>
+      <c r="BK80" t="e">
+        <f>VLOOKUP(A80,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="81" spans="1:63" x14ac:dyDescent="0.2">
@@ -35244,9 +33879,9 @@
       <c r="BI81" s="5">
         <v>6277.9724621281903</v>
       </c>
-      <c r="BK81">
-        <f>VLOOKUP(A81,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>51</v>
+      <c r="BK81" t="e">
+        <f>VLOOKUP(A81,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="82" spans="1:63" x14ac:dyDescent="0.2">
@@ -35404,8 +34039,8 @@
         <v>6249.10010875017</v>
       </c>
       <c r="BK82" t="e">
-        <f>VLOOKUP(A82,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A82,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="83" spans="1:63" x14ac:dyDescent="0.2">
@@ -35497,8 +34132,8 @@
         <v>6142.9520728039797</v>
       </c>
       <c r="BK83" t="e">
-        <f>VLOOKUP(A83,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A83,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="84" spans="1:63" x14ac:dyDescent="0.2">
@@ -35625,9 +34260,9 @@
       <c r="BI84" s="5">
         <v>6089.3194409074104</v>
       </c>
-      <c r="BK84">
-        <f>VLOOKUP(A84,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>101</v>
+      <c r="BK84" t="e">
+        <f>VLOOKUP(A84,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="85" spans="1:63" x14ac:dyDescent="0.2">
@@ -35716,8 +34351,8 @@
         <v>6010.9112570924599</v>
       </c>
       <c r="BK85" t="e">
-        <f>VLOOKUP(A85,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A85,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="86" spans="1:63" x14ac:dyDescent="0.2">
@@ -35871,9 +34506,9 @@
       <c r="BI86" s="5">
         <v>5976.0079435840998</v>
       </c>
-      <c r="BK86">
-        <f>VLOOKUP(A86,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>103</v>
+      <c r="BK86" t="e">
+        <f>VLOOKUP(A86,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="87" spans="1:63" x14ac:dyDescent="0.2">
@@ -35965,8 +34600,8 @@
         <v>5709.5896159733402</v>
       </c>
       <c r="BK87" t="e">
-        <f>VLOOKUP(A87,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A87,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="88" spans="1:63" x14ac:dyDescent="0.2">
@@ -36051,9 +34686,9 @@
       <c r="BI88" s="5">
         <v>5470.2270813550904</v>
       </c>
-      <c r="BK88">
-        <f>VLOOKUP(A88,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>35</v>
+      <c r="BK88" t="e">
+        <f>VLOOKUP(A88,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="89" spans="1:63" x14ac:dyDescent="0.2">
@@ -36180,9 +34815,9 @@
       <c r="BI89" s="5">
         <v>5356.7334868943199</v>
       </c>
-      <c r="BK89">
-        <f>VLOOKUP(A89,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>125</v>
+      <c r="BK89" t="e">
+        <f>VLOOKUP(A89,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="90" spans="1:63" x14ac:dyDescent="0.2">
@@ -36309,9 +34944,9 @@
       <c r="BI90" s="5">
         <v>5319.2689143010102</v>
       </c>
-      <c r="BK90">
-        <f>VLOOKUP(A90,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>71</v>
+      <c r="BK90" t="e">
+        <f>VLOOKUP(A90,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="91" spans="1:63" x14ac:dyDescent="0.2">
@@ -36469,8 +35104,8 @@
         <v>5230.3586183791103</v>
       </c>
       <c r="BK91" t="e">
-        <f>VLOOKUP(A91,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A91,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="92" spans="1:63" x14ac:dyDescent="0.2">
@@ -36598,8 +35233,8 @@
         <v>5182.5010361552804</v>
       </c>
       <c r="BK92" t="e">
-        <f>VLOOKUP(A92,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A92,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="93" spans="1:63" x14ac:dyDescent="0.2">
@@ -36757,8 +35392,8 @@
         <v>5175.45055028968</v>
       </c>
       <c r="BK93" t="e">
-        <f>VLOOKUP(A93,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A93,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="94" spans="1:63" x14ac:dyDescent="0.2">
@@ -36915,9 +35550,9 @@
       <c r="BI94" s="5">
         <v>5067.01979438939</v>
       </c>
-      <c r="BK94">
-        <f>VLOOKUP(A94,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>164</v>
+      <c r="BK94" t="e">
+        <f>VLOOKUP(A94,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="95" spans="1:63" x14ac:dyDescent="0.2">
@@ -37074,9 +35709,9 @@
       <c r="BI95" s="5">
         <v>4957.3397271850599</v>
       </c>
-      <c r="BK95">
-        <f>VLOOKUP(A95,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>54</v>
+      <c r="BK95" t="e">
+        <f>VLOOKUP(A95,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="96" spans="1:63" x14ac:dyDescent="0.2">
@@ -37233,9 +35868,9 @@
       <c r="BI96" s="5">
         <v>4937.9094442332998</v>
       </c>
-      <c r="BK96">
-        <f>VLOOKUP(A96,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>114</v>
+      <c r="BK96" t="e">
+        <f>VLOOKUP(A96,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="97" spans="1:63" x14ac:dyDescent="0.2">
@@ -37392,9 +36027,9 @@
       <c r="BI97" s="5">
         <v>4820.3285274732098</v>
       </c>
-      <c r="BK97">
-        <f>VLOOKUP(A97,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>53</v>
+      <c r="BK97" t="e">
+        <f>VLOOKUP(A97,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="98" spans="1:63" x14ac:dyDescent="0.2">
@@ -37548,9 +36183,9 @@
       <c r="BI98" s="5">
         <v>4489.8258832216998</v>
       </c>
-      <c r="BK98">
-        <f>VLOOKUP(A98,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>46</v>
+      <c r="BK98" t="e">
+        <f>VLOOKUP(A98,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="99" spans="1:63" x14ac:dyDescent="0.2">
@@ -37708,8 +36343,8 @@
         <v>4469.1235040556603</v>
       </c>
       <c r="BK99" t="e">
-        <f>VLOOKUP(A99,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A99,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="100" spans="1:63" x14ac:dyDescent="0.2">
@@ -37836,9 +36471,9 @@
       <c r="BI100" s="5">
         <v>4353.9914432926098</v>
       </c>
-      <c r="BK100">
-        <f>VLOOKUP(A100,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>97</v>
+      <c r="BK100" t="e">
+        <f>VLOOKUP(A100,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="101" spans="1:63" x14ac:dyDescent="0.2">
@@ -37929,9 +36564,9 @@
       <c r="BI101" s="5">
         <v>4297.00763308971</v>
       </c>
-      <c r="BK101">
-        <f>VLOOKUP(A101,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>37</v>
+      <c r="BK101" t="e">
+        <f>VLOOKUP(A101,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="102" spans="1:63" x14ac:dyDescent="0.2">
@@ -38085,9 +36720,9 @@
       <c r="BI102" s="5">
         <v>4262.5695601687603</v>
       </c>
-      <c r="BK102">
-        <f>VLOOKUP(A102,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>74</v>
+      <c r="BK102" t="e">
+        <f>VLOOKUP(A102,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="103" spans="1:63" x14ac:dyDescent="0.2">
@@ -38241,9 +36876,9 @@
       <c r="BI103" s="5">
         <v>4226.2221954858396</v>
       </c>
-      <c r="BK103">
-        <f>VLOOKUP(A103,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>67</v>
+      <c r="BK103" t="e">
+        <f>VLOOKUP(A103,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="104" spans="1:63" x14ac:dyDescent="0.2">
@@ -38292,9 +36927,9 @@
       <c r="BI104" s="5">
         <v>4225.4715613157796</v>
       </c>
-      <c r="BK104">
-        <f>VLOOKUP(A104,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>47</v>
+      <c r="BK104" t="e">
+        <f>VLOOKUP(A104,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="105" spans="1:63" x14ac:dyDescent="0.2">
@@ -38379,9 +37014,9 @@
       <c r="BI105" s="5">
         <v>4130.2111487637403</v>
       </c>
-      <c r="BK105">
-        <f>VLOOKUP(A105,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>81</v>
+      <c r="BK105" t="e">
+        <f>VLOOKUP(A105,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="106" spans="1:63" x14ac:dyDescent="0.2">
@@ -38469,9 +37104,9 @@
       <c r="BI106" s="5">
         <v>4014.9556308359101</v>
       </c>
-      <c r="BK106">
-        <f>VLOOKUP(A106,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>10</v>
+      <c r="BK106" t="e">
+        <f>VLOOKUP(A106,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="107" spans="1:63" x14ac:dyDescent="0.2">
@@ -38580,9 +37215,9 @@
       <c r="BI107" s="5">
         <v>3983.8233841203501</v>
       </c>
-      <c r="BK107">
-        <f>VLOOKUP(A107,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>178</v>
+      <c r="BK107" t="e">
+        <f>VLOOKUP(A107,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="108" spans="1:63" x14ac:dyDescent="0.2">
@@ -38733,9 +37368,9 @@
       <c r="BI108" s="5">
         <v>3966.6822463317699</v>
       </c>
-      <c r="BK108">
-        <f>VLOOKUP(A108,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>120</v>
+      <c r="BK108" t="e">
+        <f>VLOOKUP(A108,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="109" spans="1:63" x14ac:dyDescent="0.2">
@@ -38862,9 +37497,9 @@
       <c r="BI109" s="5">
         <v>3949.4192077042098</v>
       </c>
-      <c r="BK109">
-        <f>VLOOKUP(A109,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>124</v>
+      <c r="BK109" t="e">
+        <f>VLOOKUP(A109,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="110" spans="1:63" x14ac:dyDescent="0.2">
@@ -39022,8 +37657,8 @@
         <v>3860.2564420796398</v>
       </c>
       <c r="BK110" t="e">
-        <f>VLOOKUP(A110,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A110,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="111" spans="1:63" x14ac:dyDescent="0.2">
@@ -39120,9 +37755,9 @@
       <c r="BI111" s="5">
         <v>3748.1607456622901</v>
       </c>
-      <c r="BK111">
-        <f>VLOOKUP(A111,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>108</v>
+      <c r="BK111" t="e">
+        <f>VLOOKUP(A111,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="112" spans="1:63" x14ac:dyDescent="0.2">
@@ -39276,9 +37911,9 @@
       <c r="BI112" s="5">
         <v>3686.1812723542098</v>
       </c>
-      <c r="BK112">
-        <f>VLOOKUP(A112,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>118</v>
+      <c r="BK112" t="e">
+        <f>VLOOKUP(A112,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="113" spans="1:63" x14ac:dyDescent="0.2">
@@ -39405,9 +38040,9 @@
       <c r="BI113" s="5">
         <v>3676.39032745949</v>
       </c>
-      <c r="BK113">
-        <f>VLOOKUP(A113,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>112</v>
+      <c r="BK113" t="e">
+        <f>VLOOKUP(A113,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="114" spans="1:63" x14ac:dyDescent="0.2">
@@ -39565,8 +38200,8 @@
         <v>3622.2437066765701</v>
       </c>
       <c r="BK114" t="e">
-        <f>VLOOKUP(A114,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A114,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="115" spans="1:63" x14ac:dyDescent="0.2">
@@ -39693,9 +38328,9 @@
       <c r="BI115" s="5">
         <v>3620.17669236335</v>
       </c>
-      <c r="BK115">
-        <f>VLOOKUP(A115,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>158</v>
+      <c r="BK115" t="e">
+        <f>VLOOKUP(A115,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="116" spans="1:63" x14ac:dyDescent="0.2">
@@ -39849,9 +38484,9 @@
       <c r="BI116" s="5">
         <v>3609.1232788254702</v>
       </c>
-      <c r="BK116">
-        <f>VLOOKUP(A116,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>95</v>
+      <c r="BK116" t="e">
+        <f>VLOOKUP(A116,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="117" spans="1:63" x14ac:dyDescent="0.2">
@@ -39966,9 +38601,9 @@
       <c r="BI117" s="5">
         <v>3606.9038511622898</v>
       </c>
-      <c r="BK117">
-        <f>VLOOKUP(A117,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>58</v>
+      <c r="BK117" t="e">
+        <f>VLOOKUP(A117,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="118" spans="1:63" x14ac:dyDescent="0.2">
@@ -40044,9 +38679,9 @@
       <c r="BI118" s="5">
         <v>3495.5642058839699</v>
       </c>
-      <c r="BK118">
-        <f>VLOOKUP(A118,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>89</v>
+      <c r="BK118" t="e">
+        <f>VLOOKUP(A118,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="119" spans="1:63" x14ac:dyDescent="0.2">
@@ -40200,9 +38835,9 @@
       <c r="BI119" s="5">
         <v>3486.9938834675199</v>
       </c>
-      <c r="BK119">
-        <f>VLOOKUP(A119,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>88</v>
+      <c r="BK119" t="e">
+        <f>VLOOKUP(A119,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="120" spans="1:63" x14ac:dyDescent="0.2">
@@ -40360,8 +38995,8 @@
         <v>3483.1506517865701</v>
       </c>
       <c r="BK120" t="e">
-        <f>VLOOKUP(A120,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A120,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="121" spans="1:63" x14ac:dyDescent="0.2">
@@ -40515,9 +39150,9 @@
       <c r="BI121" s="5">
         <v>3459.3670064427401</v>
       </c>
-      <c r="BK121">
-        <f>VLOOKUP(A121,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>110</v>
+      <c r="BK121" t="e">
+        <f>VLOOKUP(A121,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="122" spans="1:63" x14ac:dyDescent="0.2">
@@ -40641,9 +39276,9 @@
       <c r="BI122" s="5">
         <v>3435.67164108935</v>
       </c>
-      <c r="BK122">
-        <f>VLOOKUP(A122,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>85</v>
+      <c r="BK122" t="e">
+        <f>VLOOKUP(A122,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="123" spans="1:63" x14ac:dyDescent="0.2">
@@ -40731,9 +39366,9 @@
       <c r="BI123" s="5">
         <v>3398.0831841811901</v>
       </c>
-      <c r="BK123">
-        <f>VLOOKUP(A123,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>165</v>
+      <c r="BK123" t="e">
+        <f>VLOOKUP(A123,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="124" spans="1:63" x14ac:dyDescent="0.2">
@@ -40815,9 +39450,9 @@
       <c r="BI124" s="5">
         <v>3288.2749057895899</v>
       </c>
-      <c r="BK124">
-        <f>VLOOKUP(A124,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>106</v>
+      <c r="BK124" t="e">
+        <f>VLOOKUP(A124,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="125" spans="1:63" x14ac:dyDescent="0.2">
@@ -40945,8 +39580,8 @@
         <v>3287.5297138177398</v>
       </c>
       <c r="BK125" t="e">
-        <f>VLOOKUP(A125,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A125,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="126" spans="1:63" x14ac:dyDescent="0.2">
@@ -41100,9 +39735,9 @@
       <c r="BI126" s="5">
         <v>3255.4421565764001</v>
       </c>
-      <c r="BK126">
-        <f>VLOOKUP(A126,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>99</v>
+      <c r="BK126" t="e">
+        <f>VLOOKUP(A126,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="127" spans="1:63" x14ac:dyDescent="0.2">
@@ -41175,9 +39810,9 @@
       <c r="BI127" s="5">
         <v>3252.2267182118899</v>
       </c>
-      <c r="BK127">
-        <f>VLOOKUP(A127,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>16</v>
+      <c r="BK127" t="e">
+        <f>VLOOKUP(A127,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="128" spans="1:63" x14ac:dyDescent="0.2">
@@ -41266,8 +39901,8 @@
         <v>3175.4102879676998</v>
       </c>
       <c r="BK128" t="e">
-        <f>VLOOKUP(A128,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A128,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="129" spans="1:63" x14ac:dyDescent="0.2">
@@ -41356,8 +39991,8 @@
         <v>3157.9183916031998</v>
       </c>
       <c r="BK129" t="e">
-        <f>VLOOKUP(A129,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A129,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="130" spans="1:63" x14ac:dyDescent="0.2">
@@ -41514,9 +40149,9 @@
       <c r="BI130" s="5">
         <v>3126.7199923579201</v>
       </c>
-      <c r="BK130">
-        <f>VLOOKUP(A130,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>122</v>
+      <c r="BK130" t="e">
+        <f>VLOOKUP(A130,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="131" spans="1:63" x14ac:dyDescent="0.2">
@@ -41673,9 +40308,9 @@
       <c r="BI131" s="5">
         <v>3104.1182957490901</v>
       </c>
-      <c r="BK131">
-        <f>VLOOKUP(A131,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>156</v>
+      <c r="BK131" t="e">
+        <f>VLOOKUP(A131,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="132" spans="1:63" x14ac:dyDescent="0.2">
@@ -41745,9 +40380,9 @@
       <c r="BI132" s="5">
         <v>3087.8099803230002</v>
       </c>
-      <c r="BK132">
-        <f>VLOOKUP(A132,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>38</v>
+      <c r="BK132" t="e">
+        <f>VLOOKUP(A132,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="133" spans="1:63" x14ac:dyDescent="0.2">
@@ -41820,9 +40455,9 @@
       <c r="BI133" s="5">
         <v>2874.7611952301299</v>
       </c>
-      <c r="BK133">
-        <f>VLOOKUP(A133,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>65</v>
+      <c r="BK133" t="e">
+        <f>VLOOKUP(A133,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="134" spans="1:63" x14ac:dyDescent="0.2">
@@ -41979,9 +40614,9 @@
       <c r="BI134" s="5">
         <v>2817.0183341663101</v>
       </c>
-      <c r="BK134">
-        <f>VLOOKUP(A134,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>91</v>
+      <c r="BK134" t="e">
+        <f>VLOOKUP(A134,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="135" spans="1:63" x14ac:dyDescent="0.2">
@@ -42139,8 +40774,8 @@
         <v>2803.6393618023599</v>
       </c>
       <c r="BK135" t="e">
-        <f>VLOOKUP(A135,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A135,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="136" spans="1:63" x14ac:dyDescent="0.2">
@@ -42297,9 +40932,9 @@
       <c r="BI136" s="5">
         <v>2788.2382587134698</v>
       </c>
-      <c r="BK136">
-        <f>VLOOKUP(A136,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>77</v>
+      <c r="BK136" t="e">
+        <f>VLOOKUP(A136,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="137" spans="1:63" x14ac:dyDescent="0.2">
@@ -42423,9 +41058,9 @@
       <c r="BI137" s="5">
         <v>2676.8073911617698</v>
       </c>
-      <c r="BK137">
-        <f>VLOOKUP(A137,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>64</v>
+      <c r="BK137" t="e">
+        <f>VLOOKUP(A137,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="138" spans="1:63" x14ac:dyDescent="0.2">
@@ -42582,9 +41217,9 @@
       <c r="BI138" s="5">
         <v>2528.41688218011</v>
       </c>
-      <c r="BK138">
-        <f>VLOOKUP(A138,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>149</v>
+      <c r="BK138" t="e">
+        <f>VLOOKUP(A138,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="139" spans="1:63" x14ac:dyDescent="0.2">
@@ -42681,9 +41316,9 @@
       <c r="BI139" s="5">
         <v>2381.91194264562</v>
       </c>
-      <c r="BK139">
-        <f>VLOOKUP(A139,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>111</v>
+      <c r="BK139" t="e">
+        <f>VLOOKUP(A139,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="140" spans="1:63" x14ac:dyDescent="0.2">
@@ -42810,9 +41445,9 @@
       <c r="BI140" s="5">
         <v>2199.2456887129802</v>
       </c>
-      <c r="BK140">
-        <f>VLOOKUP(A140,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>73</v>
+      <c r="BK140" t="e">
+        <f>VLOOKUP(A140,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="141" spans="1:63" x14ac:dyDescent="0.2">
@@ -42939,9 +41574,9 @@
       <c r="BI141" s="5">
         <v>2178.4522926837399</v>
       </c>
-      <c r="BK141">
-        <f>VLOOKUP(A141,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>129</v>
+      <c r="BK141" t="e">
+        <f>VLOOKUP(A141,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="142" spans="1:63" x14ac:dyDescent="0.2">
@@ -43068,9 +41703,9 @@
       <c r="BI142" s="5">
         <v>2139.2004819137201</v>
       </c>
-      <c r="BK142">
-        <f>VLOOKUP(A142,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>152</v>
+      <c r="BK142" t="e">
+        <f>VLOOKUP(A142,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="143" spans="1:63" x14ac:dyDescent="0.2">
@@ -43197,9 +41832,9 @@
       <c r="BI143" s="5">
         <v>2056.8310794502199</v>
       </c>
-      <c r="BK143">
-        <f>VLOOKUP(A143,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>119</v>
+      <c r="BK143" t="e">
+        <f>VLOOKUP(A143,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="144" spans="1:63" x14ac:dyDescent="0.2">
@@ -43353,9 +41988,9 @@
       <c r="BI144" s="5">
         <v>2049.15790861298</v>
       </c>
-      <c r="BK144">
-        <f>VLOOKUP(A144,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>105</v>
+      <c r="BK144" t="e">
+        <f>VLOOKUP(A144,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="145" spans="1:63" x14ac:dyDescent="0.2">
@@ -43380,9 +42015,9 @@
       <c r="BI145" s="5">
         <v>1904.0063346172899</v>
       </c>
-      <c r="BK145">
-        <f>VLOOKUP(A145,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>175</v>
+      <c r="BK145" t="e">
+        <f>VLOOKUP(A145,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="146" spans="1:63" x14ac:dyDescent="0.2">
@@ -43464,9 +42099,9 @@
       <c r="BI146" s="5">
         <v>1896.2244170844299</v>
       </c>
-      <c r="BK146">
-        <f>VLOOKUP(A146,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>44</v>
+      <c r="BK146" t="e">
+        <f>VLOOKUP(A146,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="147" spans="1:63" x14ac:dyDescent="0.2">
@@ -43539,9 +42174,9 @@
       <c r="BI147" s="5">
         <v>1885.9113031194499</v>
       </c>
-      <c r="BK147">
-        <f>VLOOKUP(A147,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>87</v>
+      <c r="BK147" t="e">
+        <f>VLOOKUP(A147,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="148" spans="1:63" x14ac:dyDescent="0.2">
@@ -43641,9 +42276,9 @@
       <c r="BI148" s="5">
         <v>1875.7711514313</v>
       </c>
-      <c r="BK148">
-        <f>VLOOKUP(A148,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>127</v>
+      <c r="BK148" t="e">
+        <f>VLOOKUP(A148,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="149" spans="1:63" x14ac:dyDescent="0.2">
@@ -43800,9 +42435,9 @@
       <c r="BI149" s="5">
         <v>1830.84155886947</v>
       </c>
-      <c r="BK149">
-        <f>VLOOKUP(A149,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>169</v>
+      <c r="BK149" t="e">
+        <f>VLOOKUP(A149,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="150" spans="1:63" x14ac:dyDescent="0.2">
@@ -43902,9 +42537,9 @@
       <c r="BI150" s="5">
         <v>1810.3112163687699</v>
       </c>
-      <c r="BK150">
-        <f>VLOOKUP(A150,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>82</v>
+      <c r="BK150" t="e">
+        <f>VLOOKUP(A150,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="151" spans="1:63" x14ac:dyDescent="0.2">
@@ -44016,9 +42651,9 @@
       <c r="BI151" s="5">
         <v>1777.4484102621</v>
       </c>
-      <c r="BK151">
-        <f>VLOOKUP(A151,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>182</v>
+      <c r="BK151" t="e">
+        <f>VLOOKUP(A151,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="152" spans="1:63" x14ac:dyDescent="0.2">
@@ -44176,8 +42811,8 @@
         <v>1771.12294792485</v>
       </c>
       <c r="BK152" t="e">
-        <f>VLOOKUP(A152,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A152,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="153" spans="1:63" x14ac:dyDescent="0.2">
@@ -44292,9 +42927,9 @@
       <c r="BI153" s="5">
         <v>1752.6501099265299</v>
       </c>
-      <c r="BK153">
-        <f>VLOOKUP(A153,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>139</v>
+      <c r="BK153" t="e">
+        <f>VLOOKUP(A153,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="154" spans="1:63" x14ac:dyDescent="0.2">
@@ -44452,8 +43087,8 @@
         <v>1579.60385649523</v>
       </c>
       <c r="BK154" t="e">
-        <f>VLOOKUP(A154,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A154,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="155" spans="1:63" x14ac:dyDescent="0.2">
@@ -44610,9 +43245,9 @@
       <c r="BI155" s="5">
         <v>1461.62402900863</v>
       </c>
-      <c r="BK155">
-        <f>VLOOKUP(A155,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>130</v>
+      <c r="BK155" t="e">
+        <f>VLOOKUP(A155,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="156" spans="1:63" x14ac:dyDescent="0.2">
@@ -44769,9 +43404,9 @@
       <c r="BI156" s="5">
         <v>1443.6665833483901</v>
       </c>
-      <c r="BK156">
-        <f>VLOOKUP(A156,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>144</v>
+      <c r="BK156" t="e">
+        <f>VLOOKUP(A156,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="157" spans="1:63" x14ac:dyDescent="0.2">
@@ -44929,8 +43564,8 @@
         <v>1440.0759438948201</v>
       </c>
       <c r="BK157" t="e">
-        <f>VLOOKUP(A157,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A157,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="158" spans="1:63" x14ac:dyDescent="0.2">
@@ -45088,8 +43723,8 @@
         <v>1440.0759438948201</v>
       </c>
       <c r="BK158" t="e">
-        <f>VLOOKUP(A158,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A158,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="159" spans="1:63" x14ac:dyDescent="0.2">
@@ -45216,9 +43851,9 @@
       <c r="BI159" s="5">
         <v>1421.18821280159</v>
       </c>
-      <c r="BK159">
-        <f>VLOOKUP(A159,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>104</v>
+      <c r="BK159" t="e">
+        <f>VLOOKUP(A159,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="160" spans="1:63" x14ac:dyDescent="0.2">
@@ -45372,9 +44007,9 @@
       <c r="BI160" s="5">
         <v>1406.3112465781001</v>
       </c>
-      <c r="BK160">
-        <f>VLOOKUP(A160,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>142</v>
+      <c r="BK160" t="e">
+        <f>VLOOKUP(A160,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="161" spans="1:63" x14ac:dyDescent="0.2">
@@ -45522,9 +44157,9 @@
       <c r="BI161" s="5">
         <v>1310.14775227782</v>
       </c>
-      <c r="BK161">
-        <f>VLOOKUP(A161,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>176</v>
+      <c r="BK161" t="e">
+        <f>VLOOKUP(A161,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="162" spans="1:63" x14ac:dyDescent="0.2">
@@ -45678,9 +44313,9 @@
       <c r="BI162" s="5">
         <v>1225.77148985191</v>
       </c>
-      <c r="BK162">
-        <f>VLOOKUP(A162,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>92</v>
+      <c r="BK162" t="e">
+        <f>VLOOKUP(A162,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="163" spans="1:63" x14ac:dyDescent="0.2">
@@ -45742,8 +44377,8 @@
         <v>1193.64564934648</v>
       </c>
       <c r="BK163" t="e">
-        <f>VLOOKUP(A163,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A163,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="164" spans="1:63" x14ac:dyDescent="0.2">
@@ -45898,8 +44533,8 @@
         <v>1148.8046080552799</v>
       </c>
       <c r="BK164" t="e">
-        <f>VLOOKUP(A164,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A164,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="165" spans="1:63" x14ac:dyDescent="0.2">
@@ -46054,8 +44689,8 @@
         <v>1148.8046080552799</v>
       </c>
       <c r="BK165" t="e">
-        <f>VLOOKUP(A165,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A165,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="166" spans="1:63" x14ac:dyDescent="0.2">
@@ -46209,9 +44844,9 @@
       <c r="BI166" s="5">
         <v>1147.9901816050599</v>
       </c>
-      <c r="BK166">
-        <f>VLOOKUP(A166,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>166</v>
+      <c r="BK166" t="e">
+        <f>VLOOKUP(A166,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="167" spans="1:63" x14ac:dyDescent="0.2">
@@ -46366,8 +45001,8 @@
         <v>1147.7432514900099</v>
       </c>
       <c r="BK167" t="e">
-        <f>VLOOKUP(A167,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A167,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="168" spans="1:63" x14ac:dyDescent="0.2">
@@ -46516,8 +45151,8 @@
         <v>1103.17013268244</v>
       </c>
       <c r="BK168" t="e">
-        <f>VLOOKUP(A168,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A168,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="169" spans="1:63" x14ac:dyDescent="0.2">
@@ -46584,9 +45219,9 @@
       <c r="BI169" s="5">
         <v>1087.3659895175499</v>
       </c>
-      <c r="BK169">
-        <f>VLOOKUP(A169,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>170</v>
+      <c r="BK169" t="e">
+        <f>VLOOKUP(A169,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="170" spans="1:63" x14ac:dyDescent="0.2">
@@ -46714,8 +45349,8 @@
         <v>1077.268882266</v>
       </c>
       <c r="BK170" t="e">
-        <f>VLOOKUP(A170,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A170,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="171" spans="1:63" x14ac:dyDescent="0.2">
@@ -46797,9 +45432,9 @@
       <c r="BI171" s="5">
         <v>1055.9493816895699</v>
       </c>
-      <c r="BK171">
-        <f>VLOOKUP(A171,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>131</v>
+      <c r="BK171" t="e">
+        <f>VLOOKUP(A171,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="172" spans="1:63" x14ac:dyDescent="0.2">
@@ -46953,9 +45588,9 @@
       <c r="BI172" s="5">
         <v>966.60729146685105</v>
       </c>
-      <c r="BK172">
-        <f>VLOOKUP(A172,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>98</v>
+      <c r="BK172" t="e">
+        <f>VLOOKUP(A172,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="173" spans="1:63" x14ac:dyDescent="0.2">
@@ -47082,9 +45717,9 @@
       <c r="BI173" s="5">
         <v>965.71851936658697</v>
       </c>
-      <c r="BK173">
-        <f>VLOOKUP(A173,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>100</v>
+      <c r="BK173" t="e">
+        <f>VLOOKUP(A173,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="174" spans="1:63" x14ac:dyDescent="0.2">
@@ -47238,9 +45873,9 @@
       <c r="BI174" s="5">
         <v>952.58472093665</v>
       </c>
-      <c r="BK174">
-        <f>VLOOKUP(A174,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>108</v>
+      <c r="BK174" t="e">
+        <f>VLOOKUP(A174,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="175" spans="1:63" x14ac:dyDescent="0.2">
@@ -47337,9 +45972,9 @@
       <c r="BI175" s="5">
         <v>933.82546853600695</v>
       </c>
-      <c r="BK175">
-        <f>VLOOKUP(A175,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>179</v>
+      <c r="BK175" t="e">
+        <f>VLOOKUP(A175,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="176" spans="1:63" x14ac:dyDescent="0.2">
@@ -47493,9 +46128,9 @@
       <c r="BI176" s="5">
         <v>900.88035719921004</v>
       </c>
-      <c r="BK176">
-        <f>VLOOKUP(A176,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>177</v>
+      <c r="BK176" t="e">
+        <f>VLOOKUP(A176,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="177" spans="1:63" x14ac:dyDescent="0.2">
@@ -47623,8 +46258,8 @@
         <v>862.85194341031195</v>
       </c>
       <c r="BK177" t="e">
-        <f>VLOOKUP(A177,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A177,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="178" spans="1:63" x14ac:dyDescent="0.2">
@@ -47679,9 +46314,9 @@
       <c r="BI178" s="5">
         <v>818.22339492994297</v>
       </c>
-      <c r="BK178">
-        <f>VLOOKUP(A178,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>128</v>
+      <c r="BK178" t="e">
+        <f>VLOOKUP(A178,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="179" spans="1:63" x14ac:dyDescent="0.2">
@@ -47835,9 +46470,9 @@
       <c r="BI179" s="5">
         <v>803.16313895200096</v>
       </c>
-      <c r="BK179">
-        <f>VLOOKUP(A179,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>147</v>
+      <c r="BK179" t="e">
+        <f>VLOOKUP(A179,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="180" spans="1:63" x14ac:dyDescent="0.2">
@@ -47950,8 +46585,8 @@
         <v>788.29645401744006</v>
       </c>
       <c r="BK180" t="e">
-        <f>VLOOKUP(A180,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A180,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="181" spans="1:63" x14ac:dyDescent="0.2">
@@ -48027,9 +46662,9 @@
       <c r="BI181" s="5">
         <v>783.73160009816297</v>
       </c>
-      <c r="BK181">
-        <f>VLOOKUP(A181,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>75</v>
+      <c r="BK181" t="e">
+        <f>VLOOKUP(A181,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="182" spans="1:63" x14ac:dyDescent="0.2">
@@ -48093,9 +46728,9 @@
       <c r="BI182" s="5">
         <v>758.19452120685298</v>
       </c>
-      <c r="BK182">
-        <f>VLOOKUP(A182,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>162</v>
+      <c r="BK182" t="e">
+        <f>VLOOKUP(A182,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="183" spans="1:63" x14ac:dyDescent="0.2">
@@ -48249,9 +46884,9 @@
       <c r="BI183" s="5">
         <v>750.48416534221303</v>
       </c>
-      <c r="BK183">
-        <f>VLOOKUP(A183,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>161</v>
+      <c r="BK183" t="e">
+        <f>VLOOKUP(A183,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="184" spans="1:63" x14ac:dyDescent="0.2">
@@ -48378,9 +47013,9 @@
       <c r="BI184" s="5">
         <v>716.02229338276004</v>
       </c>
-      <c r="BK184">
-        <f>VLOOKUP(A184,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>153</v>
+      <c r="BK184" t="e">
+        <f>VLOOKUP(A184,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="185" spans="1:63" x14ac:dyDescent="0.2">
@@ -48459,9 +47094,9 @@
       <c r="BI185" s="5">
         <v>693.885585185943</v>
       </c>
-      <c r="BK185">
-        <f>VLOOKUP(A185,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>181</v>
+      <c r="BK185" t="e">
+        <f>VLOOKUP(A185,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="186" spans="1:63" x14ac:dyDescent="0.2">
@@ -48589,8 +47224,8 @@
         <v>685.79946928738298</v>
       </c>
       <c r="BK186" t="e">
-        <f>VLOOKUP(A186,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A186,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="187" spans="1:63" x14ac:dyDescent="0.2">
@@ -48744,9 +47379,9 @@
       <c r="BI187" s="5">
         <v>681.08298266786801</v>
       </c>
-      <c r="BK187">
-        <f>VLOOKUP(A187,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>107</v>
+      <c r="BK187" t="e">
+        <f>VLOOKUP(A187,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="188" spans="1:63" x14ac:dyDescent="0.2">
@@ -48873,9 +47508,9 @@
       <c r="BI188" s="5">
         <v>674.32822959714895</v>
       </c>
-      <c r="BK188">
-        <f>VLOOKUP(A188,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>160</v>
+      <c r="BK188" t="e">
+        <f>VLOOKUP(A188,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="189" spans="1:63" x14ac:dyDescent="0.2">
@@ -49029,9 +47664,9 @@
       <c r="BI189" s="5">
         <v>656.848007579973</v>
       </c>
-      <c r="BK189">
-        <f>VLOOKUP(A189,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>155</v>
+      <c r="BK189" t="e">
+        <f>VLOOKUP(A189,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="190" spans="1:63" x14ac:dyDescent="0.2">
@@ -49158,9 +47793,9 @@
       <c r="BI190" s="5">
         <v>582.68232373973103</v>
       </c>
-      <c r="BK190">
-        <f>VLOOKUP(A190,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>141</v>
+      <c r="BK190" t="e">
+        <f>VLOOKUP(A190,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="191" spans="1:63" x14ac:dyDescent="0.2">
@@ -49270,8 +47905,8 @@
         <v>582.01516381140198</v>
       </c>
       <c r="BK191" t="e">
-        <f>VLOOKUP(A191,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A191,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="192" spans="1:63" x14ac:dyDescent="0.2">
@@ -49398,9 +48033,9 @@
       <c r="BI192" s="5">
         <v>546.60591959780504</v>
       </c>
-      <c r="BK192">
-        <f>VLOOKUP(A192,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>56</v>
+      <c r="BK192" t="e">
+        <f>VLOOKUP(A192,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="193" spans="1:63" x14ac:dyDescent="0.2">
@@ -49527,9 +48162,9 @@
       <c r="BI193" s="5">
         <v>535.67677831771402</v>
       </c>
-      <c r="BK193">
-        <f>VLOOKUP(A193,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>180</v>
+      <c r="BK193" t="e">
+        <f>VLOOKUP(A193,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="194" spans="1:63" x14ac:dyDescent="0.2">
@@ -49653,9 +48288,9 @@
       <c r="BI194" s="5">
         <v>522.80827985770304</v>
       </c>
-      <c r="BK194">
-        <f>VLOOKUP(A194,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>159</v>
+      <c r="BK194" t="e">
+        <f>VLOOKUP(A194,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="195" spans="1:63" x14ac:dyDescent="0.2">
@@ -49782,9 +48417,9 @@
       <c r="BI195" s="5">
         <v>496.16437037050702</v>
       </c>
-      <c r="BK195">
-        <f>VLOOKUP(A195,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>172</v>
+      <c r="BK195" t="e">
+        <f>VLOOKUP(A195,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="196" spans="1:63" x14ac:dyDescent="0.2">
@@ -49884,9 +48519,9 @@
       <c r="BI196" s="5">
         <v>489.78474139664303</v>
       </c>
-      <c r="BK196">
-        <f>VLOOKUP(A196,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>183</v>
+      <c r="BK196" t="e">
+        <f>VLOOKUP(A196,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="197" spans="1:63" x14ac:dyDescent="0.2">
@@ -49995,9 +48630,9 @@
       <c r="BI197" s="5">
         <v>463.96234290255597</v>
       </c>
-      <c r="BK197">
-        <f>VLOOKUP(A197,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>163</v>
+      <c r="BK197" t="e">
+        <f>VLOOKUP(A197,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="198" spans="1:63" x14ac:dyDescent="0.2">
@@ -50124,9 +48759,9 @@
       <c r="BI198" s="5">
         <v>455.14298181103601</v>
       </c>
-      <c r="BK198">
-        <f>VLOOKUP(A198,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>146</v>
+      <c r="BK198" t="e">
+        <f>VLOOKUP(A198,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="199" spans="1:63" x14ac:dyDescent="0.2">
@@ -50280,9 +48915,9 @@
       <c r="BI199" s="5">
         <v>397.06847300954001</v>
       </c>
-      <c r="BK199">
-        <f>VLOOKUP(A199,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>154</v>
+      <c r="BK199" t="e">
+        <f>VLOOKUP(A199,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="200" spans="1:63" x14ac:dyDescent="0.2">
@@ -50409,9 +49044,9 @@
       <c r="BI200" s="5">
         <v>394.29003661495801</v>
       </c>
-      <c r="BK200">
-        <f>VLOOKUP(A200,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>115</v>
+      <c r="BK200" t="e">
+        <f>VLOOKUP(A200,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="201" spans="1:63" x14ac:dyDescent="0.2">
@@ -50538,9 +49173,9 @@
       <c r="BI201" s="5">
         <v>361.88946601926</v>
       </c>
-      <c r="BK201">
-        <f>VLOOKUP(A201,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>148</v>
+      <c r="BK201" t="e">
+        <f>VLOOKUP(A201,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="202" spans="1:63" x14ac:dyDescent="0.2">
@@ -50667,9 +49302,9 @@
       <c r="BI202" s="5">
         <v>357.91669062854101</v>
       </c>
-      <c r="BK202">
-        <f>VLOOKUP(A202,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>167</v>
+      <c r="BK202" t="e">
+        <f>VLOOKUP(A202,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="203" spans="1:63" x14ac:dyDescent="0.2">
@@ -50823,9 +49458,9 @@
       <c r="BI203" s="5">
         <v>331.97694047594098</v>
       </c>
-      <c r="BK203">
-        <f>VLOOKUP(A203,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>184</v>
+      <c r="BK203" t="e">
+        <f>VLOOKUP(A203,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="204" spans="1:63" x14ac:dyDescent="0.2">
@@ -50952,9 +49587,9 @@
       <c r="BI204" s="5">
         <v>318.79016988632497</v>
       </c>
-      <c r="BK204">
-        <f>VLOOKUP(A204,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>145</v>
+      <c r="BK204" t="e">
+        <f>VLOOKUP(A204,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="205" spans="1:63" x14ac:dyDescent="0.2">
@@ -51081,9 +49716,9 @@
       <c r="BI205" s="5">
         <v>299.12705111275801</v>
       </c>
-      <c r="BK205">
-        <f>VLOOKUP(A205,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>185</v>
+      <c r="BK205" t="e">
+        <f>VLOOKUP(A205,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="206" spans="1:63" x14ac:dyDescent="0.2">
@@ -51210,9 +49845,9 @@
       <c r="BI206" s="5">
         <v>297.13599636105698</v>
       </c>
-      <c r="BK206">
-        <f>VLOOKUP(A206,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>137</v>
+      <c r="BK206" t="e">
+        <f>VLOOKUP(A206,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="207" spans="1:63" x14ac:dyDescent="0.2">
@@ -51339,9 +49974,9 @@
       <c r="BI207" s="5">
         <v>292.24729845458597</v>
       </c>
-      <c r="BK207">
-        <f>VLOOKUP(A207,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>150</v>
+      <c r="BK207" t="e">
+        <f>VLOOKUP(A207,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="208" spans="1:63" x14ac:dyDescent="0.2">
@@ -51447,9 +50082,9 @@
       <c r="BI208" s="5">
         <v>241.22577666786501</v>
       </c>
-      <c r="BK208">
-        <f>VLOOKUP(A208,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>174</v>
+      <c r="BK208" t="e">
+        <f>VLOOKUP(A208,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="209" spans="1:63" x14ac:dyDescent="0.2">
@@ -51576,9 +50211,9 @@
       <c r="BI209" s="5">
         <v>201.70060775651601</v>
       </c>
-      <c r="BK209">
-        <f>VLOOKUP(A209,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>157</v>
+      <c r="BK209" t="e">
+        <f>VLOOKUP(A209,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="210" spans="1:63" x14ac:dyDescent="0.2">
@@ -51705,9 +50340,9 @@
       <c r="BI210" s="5">
         <v>200.94534849850299</v>
       </c>
-      <c r="BK210">
-        <f>VLOOKUP(A210,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>133</v>
+      <c r="BK210" t="e">
+        <f>VLOOKUP(A210,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="211" spans="1:63" x14ac:dyDescent="0.2">
@@ -51724,8 +50359,8 @@
         <v>10</v>
       </c>
       <c r="BK211" t="e">
-        <f>VLOOKUP(A211,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A211,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="212" spans="1:63" x14ac:dyDescent="0.2">
@@ -51742,8 +50377,8 @@
         <v>10</v>
       </c>
       <c r="BK212" t="e">
-        <f>VLOOKUP(A212,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A212,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="213" spans="1:63" x14ac:dyDescent="0.2">
@@ -51760,8 +50395,8 @@
         <v>10</v>
       </c>
       <c r="BK213" t="e">
-        <f>VLOOKUP(A213,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A213,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="214" spans="1:63" x14ac:dyDescent="0.2">
@@ -51777,9 +50412,9 @@
       <c r="D214" t="s">
         <v>10</v>
       </c>
-      <c r="BK214">
-        <f>VLOOKUP(A214,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>113</v>
+      <c r="BK214" t="e">
+        <f>VLOOKUP(A214,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="215" spans="1:63" x14ac:dyDescent="0.2">
@@ -51796,8 +50431,8 @@
         <v>10</v>
       </c>
       <c r="BK215" t="e">
-        <f>VLOOKUP(A215,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A215,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="216" spans="1:63" x14ac:dyDescent="0.2">
@@ -51814,8 +50449,8 @@
         <v>10</v>
       </c>
       <c r="BK216" t="e">
-        <f>VLOOKUP(A216,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A216,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="217" spans="1:63" x14ac:dyDescent="0.2">
@@ -51964,8 +50599,8 @@
         <v>5791.9889700291797</v>
       </c>
       <c r="BK217" t="e">
-        <f>VLOOKUP(A217,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A217,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="218" spans="1:63" x14ac:dyDescent="0.2">
@@ -51982,8 +50617,8 @@
         <v>10</v>
       </c>
       <c r="BK218" t="e">
-        <f>VLOOKUP(A218,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A218,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="219" spans="1:63" x14ac:dyDescent="0.2">
@@ -52000,8 +50635,8 @@
         <v>10</v>
       </c>
       <c r="BK219" t="e">
-        <f>VLOOKUP(A219,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A219,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="220" spans="1:63" x14ac:dyDescent="0.2">
@@ -52140,9 +50775,9 @@
       <c r="BH220">
         <v>19572.218284552298</v>
       </c>
-      <c r="BK220">
-        <f>VLOOKUP(A220,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>45</v>
+      <c r="BK220" t="e">
+        <f>VLOOKUP(A220,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="221" spans="1:63" x14ac:dyDescent="0.2">
@@ -52221,9 +50856,9 @@
       <c r="BF221">
         <v>14308.5331728489</v>
       </c>
-      <c r="BK221">
-        <f>VLOOKUP(A221,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>27</v>
+      <c r="BK221" t="e">
+        <f>VLOOKUP(A221,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="222" spans="1:63" x14ac:dyDescent="0.2">
@@ -52284,9 +50919,9 @@
       <c r="AX222">
         <v>921.401644572907</v>
       </c>
-      <c r="BK222">
-        <f>VLOOKUP(A222,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>171</v>
+      <c r="BK222" t="e">
+        <f>VLOOKUP(A222,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="223" spans="1:63" x14ac:dyDescent="0.2">
@@ -52359,9 +50994,9 @@
       <c r="BD223">
         <v>433.36177988177502</v>
       </c>
-      <c r="BK223">
-        <f>VLOOKUP(A223,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>189</v>
+      <c r="BK223" t="e">
+        <f>VLOOKUP(A223,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="224" spans="1:63" x14ac:dyDescent="0.2">
@@ -52378,8 +51013,8 @@
         <v>10</v>
       </c>
       <c r="BK224" t="e">
-        <f>VLOOKUP(A224,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A224,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="225" spans="1:63" x14ac:dyDescent="0.2">
@@ -52395,9 +51030,9 @@
       <c r="D225" t="s">
         <v>10</v>
       </c>
-      <c r="BK225">
-        <f>VLOOKUP(A225,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>151</v>
+      <c r="BK225" t="e">
+        <f>VLOOKUP(A225,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="226" spans="1:63" x14ac:dyDescent="0.2">
@@ -52414,8 +51049,8 @@
         <v>10</v>
       </c>
       <c r="BK226" t="e">
-        <f>VLOOKUP(A226,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A226,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="227" spans="1:63" x14ac:dyDescent="0.2">
@@ -52431,9 +51066,9 @@
       <c r="D227" t="s">
         <v>10</v>
       </c>
-      <c r="BK227">
-        <f>VLOOKUP(A227,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>138</v>
+      <c r="BK227" t="e">
+        <f>VLOOKUP(A227,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="228" spans="1:63" x14ac:dyDescent="0.2">
@@ -52450,8 +51085,8 @@
         <v>10</v>
       </c>
       <c r="BK228" t="e">
-        <f>VLOOKUP(A228,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A228,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="229" spans="1:63" x14ac:dyDescent="0.2">
@@ -52468,8 +51103,8 @@
         <v>10</v>
       </c>
       <c r="BK229" t="e">
-        <f>VLOOKUP(A229,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A229,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="230" spans="1:63" x14ac:dyDescent="0.2">
@@ -52489,8 +51124,8 @@
         <v>5330.27144766736</v>
       </c>
       <c r="BK230" t="e">
-        <f>VLOOKUP(A230,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A230,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="231" spans="1:63" x14ac:dyDescent="0.2">
@@ -52507,8 +51142,8 @@
         <v>10</v>
       </c>
       <c r="BK231" t="e">
-        <f>VLOOKUP(A231,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A231,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="232" spans="1:63" x14ac:dyDescent="0.2">
@@ -52525,8 +51160,8 @@
         <v>10</v>
       </c>
       <c r="BK232" t="e">
-        <f>VLOOKUP(A232,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A232,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="233" spans="1:63" x14ac:dyDescent="0.2">
@@ -52542,9 +51177,9 @@
       <c r="D233" t="s">
         <v>10</v>
       </c>
-      <c r="BK233">
-        <f>VLOOKUP(A233,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>134</v>
+      <c r="BK233" t="e">
+        <f>VLOOKUP(A233,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="234" spans="1:63" x14ac:dyDescent="0.2">
@@ -52590,9 +51225,9 @@
       <c r="BD234">
         <v>4843.9909645780599</v>
       </c>
-      <c r="BK234">
-        <f>VLOOKUP(A234,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>188</v>
+      <c r="BK234" t="e">
+        <f>VLOOKUP(A234,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="235" spans="1:63" x14ac:dyDescent="0.2">
@@ -52609,8 +51244,8 @@
         <v>10</v>
       </c>
       <c r="BK235" t="e">
-        <f>VLOOKUP(A235,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A235,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="236" spans="1:63" x14ac:dyDescent="0.2">
@@ -52627,8 +51262,8 @@
         <v>10</v>
       </c>
       <c r="BK236" t="e">
-        <f>VLOOKUP(A236,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A236,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="237" spans="1:63" x14ac:dyDescent="0.2">
@@ -52645,8 +51280,8 @@
         <v>10</v>
       </c>
       <c r="BK237" t="e">
-        <f>VLOOKUP(A237,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A237,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="238" spans="1:63" x14ac:dyDescent="0.2">
@@ -52800,9 +51435,9 @@
       <c r="BH238">
         <v>2503.5774564440198</v>
       </c>
-      <c r="BK238">
-        <f>VLOOKUP(A238,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>68</v>
+      <c r="BK238" t="e">
+        <f>VLOOKUP(A238,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="239" spans="1:63" x14ac:dyDescent="0.2">
@@ -52819,8 +51454,8 @@
         <v>10</v>
       </c>
       <c r="BK239" t="e">
-        <f>VLOOKUP(A239,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A239,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="240" spans="1:63" x14ac:dyDescent="0.2">
@@ -52836,9 +51471,9 @@
       <c r="D240" t="s">
         <v>10</v>
       </c>
-      <c r="BK240">
-        <f>VLOOKUP(A240,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>143</v>
+      <c r="BK240" t="e">
+        <f>VLOOKUP(A240,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="241" spans="1:63" x14ac:dyDescent="0.2">
@@ -52854,9 +51489,9 @@
       <c r="D241" t="s">
         <v>10</v>
       </c>
-      <c r="BK241">
-        <f>VLOOKUP(A241,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>76</v>
+      <c r="BK241" t="e">
+        <f>VLOOKUP(A241,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="242" spans="1:63" x14ac:dyDescent="0.2">
@@ -52873,8 +51508,8 @@
         <v>10</v>
       </c>
       <c r="BK242" t="e">
-        <f>VLOOKUP(A242,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A242,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="243" spans="1:63" x14ac:dyDescent="0.2">
@@ -52891,8 +51526,8 @@
         <v>10</v>
       </c>
       <c r="BK243" t="e">
-        <f>VLOOKUP(A243,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A243,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="244" spans="1:63" x14ac:dyDescent="0.2">
@@ -52909,8 +51544,8 @@
         <v>10</v>
       </c>
       <c r="BK244" t="e">
-        <f>VLOOKUP(A244,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A244,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="245" spans="1:63" x14ac:dyDescent="0.2">
@@ -53064,9 +51699,9 @@
       <c r="BH245">
         <v>10652.7579011039</v>
       </c>
-      <c r="BK245">
-        <f>VLOOKUP(A245,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>66</v>
+      <c r="BK245" t="e">
+        <f>VLOOKUP(A245,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="246" spans="1:63" x14ac:dyDescent="0.2">
@@ -53119,8 +51754,8 @@
         <v>9950.4371327218596</v>
       </c>
       <c r="BK246" t="e">
-        <f>VLOOKUP(A246,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A246,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="247" spans="1:63" x14ac:dyDescent="0.2">
@@ -53136,9 +51771,9 @@
       <c r="D247" t="s">
         <v>10</v>
       </c>
-      <c r="BK247">
-        <f>VLOOKUP(A247,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>136</v>
+      <c r="BK247" t="e">
+        <f>VLOOKUP(A247,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="248" spans="1:63" x14ac:dyDescent="0.2">
@@ -53154,9 +51789,9 @@
       <c r="D248" t="s">
         <v>10</v>
       </c>
-      <c r="BK248">
-        <f>VLOOKUP(A248,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>55</v>
+      <c r="BK248" t="e">
+        <f>VLOOKUP(A248,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="249" spans="1:63" x14ac:dyDescent="0.2">
@@ -53173,8 +51808,8 @@
         <v>10</v>
       </c>
       <c r="BK249" t="e">
-        <f>VLOOKUP(A249,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A249,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="250" spans="1:63" x14ac:dyDescent="0.2">
@@ -53190,9 +51825,9 @@
       <c r="D250" t="s">
         <v>10</v>
       </c>
-      <c r="BK250">
-        <f>VLOOKUP(A250,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>140</v>
+      <c r="BK250" t="e">
+        <f>VLOOKUP(A250,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="251" spans="1:63" x14ac:dyDescent="0.2">
@@ -53209,8 +51844,8 @@
         <v>10</v>
       </c>
       <c r="BK251" t="e">
-        <f>VLOOKUP(A251,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A251,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="252" spans="1:63" x14ac:dyDescent="0.2">
@@ -53346,9 +51981,9 @@
       <c r="BH252">
         <v>50409.752092909301</v>
       </c>
-      <c r="BK252">
-        <f>VLOOKUP(A252,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>83</v>
+      <c r="BK252" t="e">
+        <f>VLOOKUP(A252,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="253" spans="1:63" x14ac:dyDescent="0.2">
@@ -53436,9 +52071,9 @@
       <c r="BH253">
         <v>7314.8018605118104</v>
       </c>
-      <c r="BK253">
-        <f>VLOOKUP(A253,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>40</v>
+      <c r="BK253" t="e">
+        <f>VLOOKUP(A253,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="254" spans="1:63" x14ac:dyDescent="0.2">
@@ -53469,9 +52104,9 @@
       <c r="BH254">
         <v>2015.7362952410101</v>
       </c>
-      <c r="BK254">
-        <f>VLOOKUP(A254,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>168</v>
+      <c r="BK254" t="e">
+        <f>VLOOKUP(A254,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="255" spans="1:63" x14ac:dyDescent="0.2">
@@ -53487,9 +52122,9 @@
       <c r="D255" t="s">
         <v>10</v>
       </c>
-      <c r="BK255">
-        <f>VLOOKUP(A255,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>79</v>
+      <c r="BK255" t="e">
+        <f>VLOOKUP(A255,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="256" spans="1:63" x14ac:dyDescent="0.2">
@@ -53505,9 +52140,9 @@
       <c r="D256" t="s">
         <v>10</v>
       </c>
-      <c r="BK256">
-        <f>VLOOKUP(A256,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>190</v>
+      <c r="BK256" t="e">
+        <f>VLOOKUP(A256,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="257" spans="1:63" x14ac:dyDescent="0.2">
@@ -53538,9 +52173,9 @@
       <c r="BH257">
         <v>563.34822581623996</v>
       </c>
-      <c r="BK257">
-        <f>VLOOKUP(A257,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>186</v>
+      <c r="BK257" t="e">
+        <f>VLOOKUP(A257,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="258" spans="1:63" x14ac:dyDescent="0.2">
@@ -53557,8 +52192,8 @@
         <v>10</v>
       </c>
       <c r="BK258" t="e">
-        <f>VLOOKUP(A258,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A258,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="259" spans="1:63" x14ac:dyDescent="0.2">
@@ -53688,9 +52323,9 @@
       <c r="AZ259">
         <v>1636.13081944026</v>
       </c>
-      <c r="BK259">
-        <f>VLOOKUP(A259,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>173</v>
+      <c r="BK259" t="e">
+        <f>VLOOKUP(A259,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="260" spans="1:63" x14ac:dyDescent="0.2">
@@ -53707,8 +52342,8 @@
         <v>10</v>
       </c>
       <c r="BK260" t="e">
-        <f>VLOOKUP(A260,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A260,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="261" spans="1:63" x14ac:dyDescent="0.2">
@@ -53767,8 +52402,8 @@
         <v>3499.4203935703099</v>
       </c>
       <c r="BK261" t="e">
-        <f>VLOOKUP(A261,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A261,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="262" spans="1:63" x14ac:dyDescent="0.2">
@@ -53785,8 +52420,8 @@
         <v>10</v>
       </c>
       <c r="BK262" t="e">
-        <f>VLOOKUP(A262,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A262,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="263" spans="1:63" x14ac:dyDescent="0.2">
@@ -53886,9 +52521,9 @@
       <c r="BH263">
         <v>779.16022375669604</v>
       </c>
-      <c r="BK263">
-        <f>VLOOKUP(A263,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>132</v>
+      <c r="BK263" t="e">
+        <f>VLOOKUP(A263,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="264" spans="1:63" x14ac:dyDescent="0.2">
@@ -53967,9 +52602,9 @@
       <c r="BH264">
         <v>1805.29955708889</v>
       </c>
-      <c r="BK264">
-        <f>VLOOKUP(A264,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>80</v>
+      <c r="BK264" t="e">
+        <f>VLOOKUP(A264,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="265" spans="1:63" x14ac:dyDescent="0.2">
@@ -54120,9 +52755,9 @@
       <c r="BG265">
         <v>14451.474682174699</v>
       </c>
-      <c r="BK265">
-        <f>VLOOKUP(A265,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>187</v>
+      <c r="BK265" t="e">
+        <f>VLOOKUP(A265,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="266" spans="1:63" x14ac:dyDescent="0.2">
@@ -54139,8 +52774,8 @@
         <v>10</v>
       </c>
       <c r="BK266" t="e">
-        <f>VLOOKUP(A266,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A266,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="267" spans="1:63" x14ac:dyDescent="0.2">
@@ -54157,8 +52792,8 @@
         <v>10</v>
       </c>
       <c r="BK267" t="e">
-        <f>VLOOKUP(A267,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(A267,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="268" spans="1:63" x14ac:dyDescent="0.2">
@@ -54279,9 +52914,9 @@
       <c r="BG268">
         <v>2864.4479773686198</v>
       </c>
-      <c r="BK268">
-        <f>VLOOKUP(A268,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>83</v>
+      <c r="BK268" t="e">
+        <f>VLOOKUP(A268,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="269" spans="1:63" x14ac:dyDescent="0.2">
@@ -54297,19 +52932,19 @@
       <c r="D269" t="s">
         <v>10</v>
       </c>
-      <c r="BK269">
-        <f>VLOOKUP(A269,[1]all_cleaned_formulas!$A$2:$B$190,2,FALSE)</f>
-        <v>60</v>
+      <c r="BK269" t="e">
+        <f>VLOOKUP(A269,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:BJ5">
+  <autoFilter ref="A5:BJ5" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState ref="A6:BJ269">
       <sortCondition descending="1" ref="BI5:BI269"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="BK6:BK269">
-    <cfRule type="top10" dxfId="0" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="13" priority="2" percent="1" rank="10"/>
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -54323,4 +52958,1863 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CCCD9A-6A24-9546-8460-1E23F111A504}">
+  <dimension ref="A1:B190"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>385</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>357</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>449</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>447</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>243</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>407</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>409</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>305</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>471</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>313</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>433</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>339</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>237</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>329</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>377</v>
+      </c>
+      <c r="B54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>389</v>
+      </c>
+      <c r="B55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>411</v>
+      </c>
+      <c r="B56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>293</v>
+      </c>
+      <c r="B59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>527</v>
+      </c>
+      <c r="B60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>331</v>
+      </c>
+      <c r="B64">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>369</v>
+      </c>
+      <c r="B66">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>239</v>
+      </c>
+      <c r="B67">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>301</v>
+      </c>
+      <c r="B68">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>493</v>
+      </c>
+      <c r="B69">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>375</v>
+      </c>
+      <c r="B70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>531</v>
+      </c>
+      <c r="B74">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>249</v>
+      </c>
+      <c r="B75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>323</v>
+      </c>
+      <c r="B76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>491</v>
+      </c>
+      <c r="B77">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>429</v>
+      </c>
+      <c r="B79">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>501</v>
+      </c>
+      <c r="B80">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>519</v>
+      </c>
+      <c r="B82">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>405</v>
+      </c>
+      <c r="B83">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>521</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>483</v>
+      </c>
+      <c r="B85">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>271</v>
+      </c>
+      <c r="B86">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>509</v>
+      </c>
+      <c r="B87">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>525</v>
+      </c>
+      <c r="B89">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>505</v>
+      </c>
+      <c r="B90">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>217</v>
+      </c>
+      <c r="B91">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>247</v>
+      </c>
+      <c r="B92">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>457</v>
+      </c>
+      <c r="B93">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>415</v>
+      </c>
+      <c r="B94">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>427</v>
+      </c>
+      <c r="B95">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>489</v>
+      </c>
+      <c r="B96">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>157</v>
+      </c>
+      <c r="B97">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>533</v>
+      </c>
+      <c r="B98">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>379</v>
+      </c>
+      <c r="B99">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>287</v>
+      </c>
+      <c r="B100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>119</v>
+      </c>
+      <c r="B101">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>259</v>
+      </c>
+      <c r="B102">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>123</v>
+      </c>
+      <c r="B103">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>423</v>
+      </c>
+      <c r="B104">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>199</v>
+      </c>
+      <c r="B105">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>395</v>
+      </c>
+      <c r="B106">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>361</v>
+      </c>
+      <c r="B107">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>171</v>
+      </c>
+      <c r="B108">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>347</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>281</v>
+      </c>
+      <c r="B110">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>544</v>
+      </c>
+      <c r="B111">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>57</v>
+      </c>
+      <c r="B112">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>29</v>
+      </c>
+      <c r="B113">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>137</v>
+      </c>
+      <c r="B114">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>499</v>
+      </c>
+      <c r="B115">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>65</v>
+      </c>
+      <c r="B117">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>241</v>
+      </c>
+      <c r="B118">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>383</v>
+      </c>
+      <c r="B119">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>51</v>
+      </c>
+      <c r="B121">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>63</v>
+      </c>
+      <c r="B123">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>193</v>
+      </c>
+      <c r="B124">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>511</v>
+      </c>
+      <c r="B125">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>265</v>
+      </c>
+      <c r="B126">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>355</v>
+      </c>
+      <c r="B127">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>473</v>
+      </c>
+      <c r="B128">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>542</v>
+      </c>
+      <c r="B129">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>223</v>
+      </c>
+      <c r="B130">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>251</v>
+      </c>
+      <c r="B131">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>497</v>
+      </c>
+      <c r="B132">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>341</v>
+      </c>
+      <c r="B133">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>255</v>
+      </c>
+      <c r="B134">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>309</v>
+      </c>
+      <c r="B135">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>381</v>
+      </c>
+      <c r="B136">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>335</v>
+      </c>
+      <c r="B137">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>185</v>
+      </c>
+      <c r="B138">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>263</v>
+      </c>
+      <c r="B139">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>397</v>
+      </c>
+      <c r="B140">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>321</v>
+      </c>
+      <c r="B141">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>87</v>
+      </c>
+      <c r="B142">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>315</v>
+      </c>
+      <c r="B143">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>373</v>
+      </c>
+      <c r="B144">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>177</v>
+      </c>
+      <c r="B145">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>43</v>
+      </c>
+      <c r="B146">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>419</v>
+      </c>
+      <c r="B147">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>425</v>
+      </c>
+      <c r="B148">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>61</v>
+      </c>
+      <c r="B149">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>351</v>
+      </c>
+      <c r="B150">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>163</v>
+      </c>
+      <c r="B151">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>253</v>
+      </c>
+      <c r="B152">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>97</v>
+      </c>
+      <c r="B153">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>469</v>
+      </c>
+      <c r="B154">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>41</v>
+      </c>
+      <c r="B155">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>125</v>
+      </c>
+      <c r="B156">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>37</v>
+      </c>
+      <c r="B157">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>445</v>
+      </c>
+      <c r="B158">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>149</v>
+      </c>
+      <c r="B159">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>337</v>
+      </c>
+      <c r="B160">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>535</v>
+      </c>
+      <c r="B161">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>443</v>
+      </c>
+      <c r="B162">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>231</v>
+      </c>
+      <c r="B165">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>89</v>
+      </c>
+      <c r="B166">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>307</v>
+      </c>
+      <c r="B167">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>417</v>
+      </c>
+      <c r="B168">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>353</v>
+      </c>
+      <c r="B169">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>325</v>
+      </c>
+      <c r="B170">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>117</v>
+      </c>
+      <c r="B171">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>179</v>
+      </c>
+      <c r="B172">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>459</v>
+      </c>
+      <c r="B173">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>267</v>
+      </c>
+      <c r="B174">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>479</v>
+      </c>
+      <c r="B175">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>45</v>
+      </c>
+      <c r="B176">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>93</v>
+      </c>
+      <c r="B177">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>529</v>
+      </c>
+      <c r="B179">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>463</v>
+      </c>
+      <c r="B180">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>205</v>
+      </c>
+      <c r="B181">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>91</v>
+      </c>
+      <c r="B184">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>73</v>
+      </c>
+      <c r="B185">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>437</v>
+      </c>
+      <c r="B186">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>513</v>
+      </c>
+      <c r="B187">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>269</v>
+      </c>
+      <c r="B188">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>143</v>
+      </c>
+      <c r="B189">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>431</v>
+      </c>
+      <c r="B190">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{AEC5B216-9C74-D244-8B30-5CCB6CF8614F}">
+    <sortState ref="A2:B190">
+      <sortCondition ref="B1:B190"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:B190">
+    <cfRule type="top10" dxfId="12" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="11" priority="1" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91561C86-3B3D-B64C-8B72-07E1ACA5210B}">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>463</v>
+      </c>
+      <c r="B12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>529</v>
+      </c>
+      <c r="B13">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>479</v>
+      </c>
+      <c r="B17">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>459</v>
+      </c>
+      <c r="B19">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>365</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>543</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>359</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>507</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>451</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>319</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>295</v>
+      </c>
+      <c r="B32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assignments/3-dynamics-interactivity-narrative/data/raw and working files/income.xlsx
+++ b/assignments/3-dynamics-interactivity-narrative/data/raw and working files/income.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlevinson/programs/parsons/major-studio-1/assignments/3-dynamics-interactivity-narrative/data/raw and working files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F931084-FBC2-B948-973A-074B8A6912AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEC305E-01CF-334A-AA65-512BEC5850FC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="27640" windowHeight="16180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="27640" windowHeight="16180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,22 +18,20 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet3!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="552">
   <si>
     <t>Data Source</t>
   </si>
@@ -1668,12 +1666,36 @@
   </si>
   <si>
     <t>Swaziland</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>Incomepercapita</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2107,7 +2129,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2150,8 +2172,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2160,8 +2183,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2189,6 +2214,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="42" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -2205,7 +2231,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2226,126 +2252,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2357,25 +2263,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="master_formulas"/>
-      <sheetName val="master_values_copy_to_CSV"/>
-      <sheetName val="pivot"/>
-      <sheetName val="shorthand calcs"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23224,26 +23111,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BK269"/>
+  <dimension ref="A1:BJ269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="60" ySplit="5" topLeftCell="BI6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BI1" sqref="BI1"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B124" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BM10" sqref="BM10"/>
+      <selection pane="bottomRight" activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1" customWidth="1"/>
-    <col min="4" max="4" width="2.33203125" customWidth="1"/>
-    <col min="5" max="60" width="0" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="30" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="44" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="60" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23251,7 +23141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -23259,7 +23149,7 @@
         <v>43391</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -23447,7 +23337,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -23571,12 +23461,8 @@
       <c r="BI6" s="5">
         <v>63377.625945812099</v>
       </c>
-      <c r="BK6" t="e">
-        <f>VLOOKUP(A6,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>359</v>
       </c>
@@ -23730,12 +23616,8 @@
       <c r="BI7" s="5">
         <v>57982.863295516698</v>
       </c>
-      <c r="BK7" t="e">
-        <f>VLOOKUP(A7,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>293</v>
       </c>
@@ -23889,12 +23771,8 @@
       <c r="BI8" s="5">
         <v>56303.489596035302</v>
       </c>
-      <c r="BK8" t="e">
-        <f>VLOOKUP(A8,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>233</v>
       </c>
@@ -23925,12 +23803,8 @@
       <c r="BI9" s="5">
         <v>52292.770737144201</v>
       </c>
-      <c r="BK9" t="e">
-        <f>VLOOKUP(A9,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>507</v>
       </c>
@@ -24084,12 +23958,8 @@
       <c r="BI10" s="5">
         <v>49574.325009535198</v>
       </c>
-      <c r="BK10" t="e">
-        <f>VLOOKUP(A10,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>345</v>
       </c>
@@ -24243,12 +24113,8 @@
       <c r="BI11" s="5">
         <v>48039.131005802199</v>
       </c>
-      <c r="BK11" t="e">
-        <f>VLOOKUP(A11,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -24402,12 +24268,8 @@
       <c r="BI12" s="5">
         <v>45727.889969596399</v>
       </c>
-      <c r="BK12" t="e">
-        <f>VLOOKUP(A12,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>451</v>
       </c>
@@ -24561,12 +24423,8 @@
       <c r="BI13" s="5">
         <v>44237.727846859001</v>
       </c>
-      <c r="BK13" t="e">
-        <f>VLOOKUP(A13,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>421</v>
       </c>
@@ -24717,12 +24575,8 @@
       <c r="BI14" s="5">
         <v>43518.500634789802</v>
       </c>
-      <c r="BK14" t="e">
-        <f>VLOOKUP(A14,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -24876,12 +24730,8 @@
       <c r="BI15" s="5">
         <v>38859.3225834615</v>
       </c>
-      <c r="BK15" t="e">
-        <f>VLOOKUP(A15,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>227</v>
       </c>
@@ -25035,12 +24885,8 @@
       <c r="BI16" s="5">
         <v>37783.765847069903</v>
       </c>
-      <c r="BK16" t="e">
-        <f>VLOOKUP(A16,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>357</v>
       </c>
@@ -25194,12 +25040,8 @@
       <c r="BI17" s="5">
         <v>37534.311226350801</v>
       </c>
-      <c r="BK17" t="e">
-        <f>VLOOKUP(A17,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -25353,12 +25195,8 @@
       <c r="BI18" s="5">
         <v>36635.901913338603</v>
       </c>
-      <c r="BK18" t="e">
-        <f>VLOOKUP(A18,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -25512,12 +25350,8 @@
       <c r="BI19" s="5">
         <v>35599.952653218403</v>
       </c>
-      <c r="BK19" t="e">
-        <f>VLOOKUP(A19,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -25671,12 +25505,8 @@
       <c r="BI20" s="5">
         <v>35517.598979001501</v>
       </c>
-      <c r="BK20" t="e">
-        <f>VLOOKUP(A20,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -25737,12 +25567,8 @@
       <c r="BI21" s="5">
         <v>34579.6695873317</v>
       </c>
-      <c r="BK21" t="e">
-        <f>VLOOKUP(A21,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -25896,12 +25722,8 @@
       <c r="BI22" s="5">
         <v>34229.193628421497</v>
       </c>
-      <c r="BK22" t="e">
-        <f>VLOOKUP(A22,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -26055,12 +25877,8 @@
       <c r="BI23" s="5">
         <v>34217.909245757903</v>
       </c>
-      <c r="BK23" t="e">
-        <f>VLOOKUP(A23,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>167</v>
       </c>
@@ -26214,12 +26032,8 @@
       <c r="BI24" s="5">
         <v>34167.086794531802</v>
       </c>
-      <c r="BK24" t="e">
-        <f>VLOOKUP(A24,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -26373,12 +26187,8 @@
       <c r="BI25" s="5">
         <v>33307.821867450199</v>
       </c>
-      <c r="BK25" t="e">
-        <f>VLOOKUP(A25,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>195</v>
       </c>
@@ -26532,12 +26342,8 @@
       <c r="BI26" s="5">
         <v>32990.464717059302</v>
       </c>
-      <c r="BK26" t="e">
-        <f>VLOOKUP(A26,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>365</v>
       </c>
@@ -26688,12 +26494,8 @@
       <c r="BI27" s="5">
         <v>32271.0717051879</v>
       </c>
-      <c r="BK27" t="e">
-        <f>VLOOKUP(A27,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>235</v>
       </c>
@@ -26847,12 +26649,8 @@
       <c r="BI28" s="5">
         <v>31884.847077955801</v>
       </c>
-      <c r="BK28" t="e">
-        <f>VLOOKUP(A28,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>243</v>
       </c>
@@ -27006,12 +26804,8 @@
       <c r="BI29" s="5">
         <v>31117.799014409498</v>
       </c>
-      <c r="BK29" t="e">
-        <f>VLOOKUP(A29,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>159</v>
       </c>
@@ -27165,12 +26959,8 @@
       <c r="BI30" s="5">
         <v>30815.896934692199</v>
       </c>
-      <c r="BK30" t="e">
-        <f>VLOOKUP(A30,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>367</v>
       </c>
@@ -27324,12 +27114,8 @@
       <c r="BI31" s="5">
         <v>30741.4971714079</v>
       </c>
-      <c r="BK31" t="e">
-        <f>VLOOKUP(A31,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -27483,12 +27269,8 @@
       <c r="BI32" s="5">
         <v>28768.427841282901</v>
       </c>
-      <c r="BK32" t="e">
-        <f>VLOOKUP(A32,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -27642,12 +27424,8 @@
       <c r="BI33" s="5">
         <v>26614.184352972101</v>
       </c>
-      <c r="BK33" t="e">
-        <f>VLOOKUP(A33,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>237</v>
       </c>
@@ -27801,12 +27579,8 @@
       <c r="BI34" s="5">
         <v>25262.384612039699</v>
       </c>
-      <c r="BK34" t="e">
-        <f>VLOOKUP(A34,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>259</v>
       </c>
@@ -27948,12 +27722,8 @@
       <c r="BI35" s="5">
         <v>24852.106519989698</v>
       </c>
-      <c r="BK35" t="e">
-        <f>VLOOKUP(A35,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -28050,12 +27820,8 @@
       <c r="BI36" s="5">
         <v>24809.207857172602</v>
       </c>
-      <c r="BK36" t="e">
-        <f>VLOOKUP(A36,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -28179,12 +27945,8 @@
       <c r="BI37" s="5">
         <v>24603.4414118227</v>
       </c>
-      <c r="BK37" t="e">
-        <f>VLOOKUP(A37,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>257</v>
       </c>
@@ -28335,12 +28097,8 @@
       <c r="BI38" s="5">
         <v>22172.113067230599</v>
       </c>
-      <c r="BK38" t="e">
-        <f>VLOOKUP(A38,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>145</v>
       </c>
@@ -28494,12 +28252,8 @@
       <c r="BI39" s="5">
         <v>21836.003888478601</v>
       </c>
-      <c r="BK39" t="e">
-        <f>VLOOKUP(A39,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -28623,12 +28377,8 @@
       <c r="BI40" s="5">
         <v>18906.705141207</v>
       </c>
-      <c r="BK40" t="e">
-        <f>VLOOKUP(A40,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -28782,12 +28532,8 @@
       <c r="BI41" s="5">
         <v>18252.431833657101</v>
       </c>
-      <c r="BK41" t="e">
-        <f>VLOOKUP(A41,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>415</v>
       </c>
@@ -28941,12 +28687,8 @@
       <c r="BI42" s="5">
         <v>16720.895676197499</v>
       </c>
-      <c r="BK42" t="e">
-        <f>VLOOKUP(A42,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>449</v>
       </c>
@@ -29025,12 +28767,8 @@
       <c r="BI43" s="5">
         <v>16640.1165260546</v>
       </c>
-      <c r="BK43" t="e">
-        <f>VLOOKUP(A43,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>393</v>
       </c>
@@ -29184,12 +28922,8 @@
       <c r="BI44" s="5">
         <v>16032.518465338</v>
       </c>
-      <c r="BK44" t="e">
-        <f>VLOOKUP(A44,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>147</v>
       </c>
@@ -29253,12 +28987,8 @@
       <c r="BI45" s="5">
         <v>14570.4090879168</v>
       </c>
-      <c r="BK45" t="e">
-        <f>VLOOKUP(A45,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>183</v>
       </c>
@@ -29412,12 +29142,8 @@
       <c r="BI46" s="5">
         <v>14275.272380061801</v>
       </c>
-      <c r="BK46" t="e">
-        <f>VLOOKUP(A46,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -29511,12 +29237,8 @@
       <c r="BI47" s="5">
         <v>13396.9264709239</v>
       </c>
-      <c r="BK47" t="e">
-        <f>VLOOKUP(A47,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>505</v>
       </c>
@@ -29667,12 +29389,8 @@
       <c r="BI48" s="5">
         <v>13113.635508245899</v>
       </c>
-      <c r="BK48" t="e">
-        <f>VLOOKUP(A48,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>489</v>
       </c>
@@ -29826,12 +29544,8 @@
       <c r="BI49" s="5">
         <v>12968.912747353799</v>
       </c>
-      <c r="BK49" t="e">
-        <f>VLOOKUP(A49,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>447</v>
       </c>
@@ -29910,12 +29624,8 @@
       <c r="BI50" s="5">
         <v>12869.916239778</v>
       </c>
-      <c r="BK50" t="e">
-        <f>VLOOKUP(A50,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>457</v>
       </c>
@@ -30009,12 +29719,8 @@
       <c r="BI51" s="5">
         <v>12716.2874580588</v>
       </c>
-      <c r="BK51" t="e">
-        <f>VLOOKUP(A51,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>291</v>
       </c>
@@ -30093,12 +29799,8 @@
       <c r="BI52" s="5">
         <v>12325.4329378206</v>
       </c>
-      <c r="BK52" t="e">
-        <f>VLOOKUP(A52,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>375</v>
       </c>
@@ -30249,12 +29951,8 @@
       <c r="BI53" s="5">
         <v>11446.6315879537</v>
       </c>
-      <c r="BK53" t="e">
-        <f>VLOOKUP(A53,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>295</v>
       </c>
@@ -30333,12 +30031,8 @@
       <c r="BI54" s="5">
         <v>10891.137924886099</v>
       </c>
-      <c r="BK54" t="e">
-        <f>VLOOKUP(A54,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>83</v>
       </c>
@@ -30492,12 +30186,8 @@
       <c r="BI55" s="5">
         <v>10860.154428547799</v>
       </c>
-      <c r="BK55" t="e">
-        <f>VLOOKUP(A55,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -30651,12 +30341,8 @@
       <c r="BI56" s="5">
         <v>10729.8648818168</v>
       </c>
-      <c r="BK56" t="e">
-        <f>VLOOKUP(A56,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>385</v>
       </c>
@@ -30747,12 +30433,8 @@
       <c r="BI57" s="5">
         <v>10463.1121805653</v>
       </c>
-      <c r="BK57" t="e">
-        <f>VLOOKUP(A57,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -30903,12 +30585,8 @@
       <c r="BI58" s="5">
         <v>10441.633558691099</v>
       </c>
-      <c r="BK58" t="e">
-        <f>VLOOKUP(A58,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -30993,12 +30671,8 @@
       <c r="BI59" s="5">
         <v>10143.096799041199</v>
       </c>
-      <c r="BK59" t="e">
-        <f>VLOOKUP(A59,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>207</v>
       </c>
@@ -31083,12 +30757,8 @@
       <c r="BI60" s="5">
         <v>9991.2385628384709</v>
       </c>
-      <c r="BK60" t="e">
-        <f>VLOOKUP(A60,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>203</v>
       </c>
@@ -31167,12 +30837,8 @@
       <c r="BI61" s="5">
         <v>9685.7290665643395</v>
       </c>
-      <c r="BK61" t="e">
-        <f>VLOOKUP(A61,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>309</v>
       </c>
@@ -31281,12 +30947,8 @@
       <c r="BI62" s="5">
         <v>9517.7990044542894</v>
       </c>
-      <c r="BK62" t="e">
-        <f>VLOOKUP(A62,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>493</v>
       </c>
@@ -31440,12 +31102,8 @@
       <c r="BI63" s="5">
         <v>9064.5320516790907</v>
       </c>
-      <c r="BK63" t="e">
-        <f>VLOOKUP(A63,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>441</v>
       </c>
@@ -31506,12 +31164,8 @@
       <c r="BI64" s="5">
         <v>9041.5304530664507</v>
       </c>
-      <c r="BK64" t="e">
-        <f>VLOOKUP(A64,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>523</v>
       </c>
@@ -31665,12 +31319,8 @@
       <c r="BI65" s="5">
         <v>8413.5051740835206</v>
       </c>
-      <c r="BK65" t="e">
-        <f>VLOOKUP(A65,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>339</v>
       </c>
@@ -31806,12 +31456,8 @@
       <c r="BI66" s="5">
         <v>7896.1609327702499</v>
       </c>
-      <c r="BK66" t="e">
-        <f>VLOOKUP(A66,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -31965,12 +31611,8 @@
       <c r="BI67" s="5">
         <v>7783.2455277689096</v>
       </c>
-      <c r="BK67" t="e">
-        <f>VLOOKUP(A67,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -32094,12 +31736,8 @@
       <c r="BI68" s="5">
         <v>7517.9750682588301</v>
       </c>
-      <c r="BK68" t="e">
-        <f>VLOOKUP(A68,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>271</v>
       </c>
@@ -32223,12 +31861,8 @@
       <c r="BI69" s="5">
         <v>7492.1904831656302</v>
       </c>
-      <c r="BK69" t="e">
-        <f>VLOOKUP(A69,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>343</v>
       </c>
@@ -32382,12 +32016,8 @@
       <c r="BI70" s="5">
         <v>7477.4564946589298</v>
       </c>
-      <c r="BK70" t="e">
-        <f>VLOOKUP(A70,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>407</v>
       </c>
@@ -32484,12 +32114,8 @@
       <c r="BI71" s="5">
         <v>7427.88583051362</v>
       </c>
-      <c r="BK71" t="e">
-        <f>VLOOKUP(A71,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>63</v>
       </c>
@@ -32643,12 +32269,8 @@
       <c r="BI72" s="5">
         <v>7352.1566435306304</v>
       </c>
-      <c r="BK72" t="e">
-        <f>VLOOKUP(A72,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="73" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>273</v>
       </c>
@@ -32802,12 +32424,8 @@
       <c r="BI73" s="5">
         <v>7028.5150057110104</v>
       </c>
-      <c r="BK73" t="e">
-        <f>VLOOKUP(A73,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="74" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>477</v>
       </c>
@@ -32961,12 +32579,8 @@
       <c r="BI74" s="5">
         <v>6981.0013558430001</v>
       </c>
-      <c r="BK74" t="e">
-        <f>VLOOKUP(A74,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="75" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>313</v>
       </c>
@@ -33120,12 +32734,8 @@
       <c r="BI75" s="5">
         <v>6971.0919916989396</v>
       </c>
-      <c r="BK75" t="e">
-        <f>VLOOKUP(A75,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="76" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>265</v>
       </c>
@@ -33222,12 +32832,8 @@
       <c r="BI76" s="5">
         <v>6598.6509934262203</v>
       </c>
-      <c r="BK76" t="e">
-        <f>VLOOKUP(A76,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="77" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>289</v>
       </c>
@@ -33381,12 +32987,8 @@
       <c r="BI77" s="5">
         <v>6437.5513069703902</v>
       </c>
-      <c r="BK77" t="e">
-        <f>VLOOKUP(A77,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="78" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>261</v>
       </c>
@@ -33540,12 +33142,8 @@
       <c r="BI78" s="5">
         <v>6407.3918594018196</v>
       </c>
-      <c r="BK78" t="e">
-        <f>VLOOKUP(A78,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>47</v>
       </c>
@@ -33669,12 +33267,8 @@
       <c r="BI79" s="5">
         <v>6326.0751042320799</v>
       </c>
-      <c r="BK79" t="e">
-        <f>VLOOKUP(A79,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -33828,12 +33422,8 @@
       <c r="BI80" s="5">
         <v>6309.00158417283</v>
       </c>
-      <c r="BK80" t="e">
-        <f>VLOOKUP(A80,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="81" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>329</v>
       </c>
@@ -33879,12 +33469,8 @@
       <c r="BI81" s="5">
         <v>6277.9724621281903</v>
       </c>
-      <c r="BK81" t="e">
-        <f>VLOOKUP(A81,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="82" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>503</v>
       </c>
@@ -34038,12 +33624,8 @@
       <c r="BI82" s="5">
         <v>6249.10010875017</v>
       </c>
-      <c r="BK82" t="e">
-        <f>VLOOKUP(A82,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="83" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>467</v>
       </c>
@@ -34131,12 +33713,8 @@
       <c r="BI83" s="5">
         <v>6142.9520728039797</v>
       </c>
-      <c r="BK83" t="e">
-        <f>VLOOKUP(A83,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>119</v>
       </c>
@@ -34260,12 +33838,8 @@
       <c r="BI84" s="5">
         <v>6089.3194409074104</v>
       </c>
-      <c r="BK84" t="e">
-        <f>VLOOKUP(A84,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="85" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>311</v>
       </c>
@@ -34350,12 +33924,8 @@
       <c r="BI85" s="5">
         <v>6010.9112570924599</v>
       </c>
-      <c r="BK85" t="e">
-        <f>VLOOKUP(A85,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="86" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>123</v>
       </c>
@@ -34506,12 +34076,8 @@
       <c r="BI86" s="5">
         <v>5976.0079435840998</v>
       </c>
-      <c r="BK86" t="e">
-        <f>VLOOKUP(A86,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="87" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>133</v>
       </c>
@@ -34599,12 +34165,8 @@
       <c r="BI87" s="5">
         <v>5709.5896159733402</v>
       </c>
-      <c r="BK87" t="e">
-        <f>VLOOKUP(A87,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="88" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>245</v>
       </c>
@@ -34686,12 +34248,8 @@
       <c r="BI88" s="5">
         <v>5470.2270813550904</v>
       </c>
-      <c r="BK88" t="e">
-        <f>VLOOKUP(A88,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="89" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>511</v>
       </c>
@@ -34815,12 +34373,8 @@
       <c r="BI89" s="5">
         <v>5356.7334868943199</v>
       </c>
-      <c r="BK89" t="e">
-        <f>VLOOKUP(A89,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>71</v>
       </c>
@@ -34944,12 +34498,8 @@
       <c r="BI90" s="5">
         <v>5319.2689143010102</v>
       </c>
-      <c r="BK90" t="e">
-        <f>VLOOKUP(A90,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="91" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>465</v>
       </c>
@@ -35103,12 +34653,8 @@
       <c r="BI91" s="5">
         <v>5230.3586183791103</v>
       </c>
-      <c r="BK91" t="e">
-        <f>VLOOKUP(A91,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="92" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -35232,12 +34778,8 @@
       <c r="BI92" s="5">
         <v>5182.5010361552804</v>
       </c>
-      <c r="BK92" t="e">
-        <f>VLOOKUP(A92,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="93" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>127</v>
       </c>
@@ -35391,12 +34933,8 @@
       <c r="BI93" s="5">
         <v>5175.45055028968</v>
       </c>
-      <c r="BK93" t="e">
-        <f>VLOOKUP(A93,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="94" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>165</v>
       </c>
@@ -35550,12 +35088,8 @@
       <c r="BI94" s="5">
         <v>5067.01979438939</v>
       </c>
-      <c r="BK94" t="e">
-        <f>VLOOKUP(A94,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="95" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>377</v>
       </c>
@@ -35709,12 +35243,8 @@
       <c r="BI95" s="5">
         <v>4957.3397271850599</v>
       </c>
-      <c r="BK95" t="e">
-        <f>VLOOKUP(A95,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="96" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>137</v>
       </c>
@@ -35868,12 +35398,8 @@
       <c r="BI96" s="5">
         <v>4937.9094442332998</v>
       </c>
-      <c r="BK96" t="e">
-        <f>VLOOKUP(A96,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="97" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -36027,12 +35553,8 @@
       <c r="BI97" s="5">
         <v>4820.3285274732098</v>
       </c>
-      <c r="BK97" t="e">
-        <f>VLOOKUP(A97,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="98" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>471</v>
       </c>
@@ -36183,12 +35705,8 @@
       <c r="BI98" s="5">
         <v>4489.8258832216998</v>
       </c>
-      <c r="BK98" t="e">
-        <f>VLOOKUP(A98,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="99" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>209</v>
       </c>
@@ -36342,12 +35860,8 @@
       <c r="BI99" s="5">
         <v>4469.1235040556603</v>
       </c>
-      <c r="BK99" t="e">
-        <f>VLOOKUP(A99,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="100" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>157</v>
       </c>
@@ -36471,12 +35985,8 @@
       <c r="BI100" s="5">
         <v>4353.9914432926098</v>
       </c>
-      <c r="BK100" t="e">
-        <f>VLOOKUP(A100,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="101" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>55</v>
       </c>
@@ -36564,12 +36074,8 @@
       <c r="BI101" s="5">
         <v>4297.00763308971</v>
       </c>
-      <c r="BK101" t="e">
-        <f>VLOOKUP(A101,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="102" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>531</v>
       </c>
@@ -36720,12 +36226,8 @@
       <c r="BI102" s="5">
         <v>4262.5695601687603</v>
       </c>
-      <c r="BK102" t="e">
-        <f>VLOOKUP(A102,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="103" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>239</v>
       </c>
@@ -36876,12 +36378,8 @@
       <c r="BI103" s="5">
         <v>4226.2221954858396</v>
       </c>
-      <c r="BK103" t="e">
-        <f>VLOOKUP(A103,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="104" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>433</v>
       </c>
@@ -36927,12 +36425,8 @@
       <c r="BI104" s="5">
         <v>4225.4715613157796</v>
       </c>
-      <c r="BK104" t="e">
-        <f>VLOOKUP(A104,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="105" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>53</v>
       </c>
@@ -37014,12 +36508,8 @@
       <c r="BI105" s="5">
         <v>4130.2111487637403</v>
       </c>
-      <c r="BK105" t="e">
-        <f>VLOOKUP(A105,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="106" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>319</v>
       </c>
@@ -37104,12 +36594,8 @@
       <c r="BI106" s="5">
         <v>4014.9556308359101</v>
       </c>
-      <c r="BK106" t="e">
-        <f>VLOOKUP(A106,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="107" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>181</v>
       </c>
@@ -37215,12 +36701,8 @@
       <c r="BI107" s="5">
         <v>3983.8233841203501</v>
       </c>
-      <c r="BK107" t="e">
-        <f>VLOOKUP(A107,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="108" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>229</v>
       </c>
@@ -37368,12 +36850,8 @@
       <c r="BI108" s="5">
         <v>3966.6822463317699</v>
       </c>
-      <c r="BK108" t="e">
-        <f>VLOOKUP(A108,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="109" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>193</v>
       </c>
@@ -37497,12 +36975,8 @@
       <c r="BI109" s="5">
         <v>3949.4192077042098</v>
       </c>
-      <c r="BK109" t="e">
-        <f>VLOOKUP(A109,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="110" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>317</v>
       </c>
@@ -37656,12 +37130,8 @@
       <c r="BI110" s="5">
         <v>3860.2564420796398</v>
       </c>
-      <c r="BK110" t="e">
-        <f>VLOOKUP(A110,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="111" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>347</v>
       </c>
@@ -37755,12 +37225,8 @@
       <c r="BI111" s="5">
         <v>3748.1607456622901</v>
       </c>
-      <c r="BK111" t="e">
-        <f>VLOOKUP(A111,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="112" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>241</v>
       </c>
@@ -37911,12 +37377,8 @@
       <c r="BI112" s="5">
         <v>3686.1812723542098</v>
       </c>
-      <c r="BK112" t="e">
-        <f>VLOOKUP(A112,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="113" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>57</v>
       </c>
@@ -38040,12 +37502,8 @@
       <c r="BI113" s="5">
         <v>3676.39032745949</v>
       </c>
-      <c r="BK113" t="e">
-        <f>VLOOKUP(A113,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="114" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>211</v>
       </c>
@@ -38199,12 +37657,8 @@
       <c r="BI114" s="5">
         <v>3622.2437066765701</v>
       </c>
-      <c r="BK114" t="e">
-        <f>VLOOKUP(A114,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="115" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>445</v>
       </c>
@@ -38328,12 +37782,8 @@
       <c r="BI115" s="5">
         <v>3620.17669236335</v>
       </c>
-      <c r="BK115" t="e">
-        <f>VLOOKUP(A115,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="116" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>427</v>
       </c>
@@ -38484,12 +37934,8 @@
       <c r="BI116" s="5">
         <v>3609.1232788254702</v>
       </c>
-      <c r="BK116" t="e">
-        <f>VLOOKUP(A116,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="117" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -38601,12 +38047,8 @@
       <c r="BI117" s="5">
         <v>3606.9038511622898</v>
       </c>
-      <c r="BK117" t="e">
-        <f>VLOOKUP(A117,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="118" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>525</v>
       </c>
@@ -38679,12 +38121,8 @@
       <c r="BI118" s="5">
         <v>3495.5642058839699</v>
       </c>
-      <c r="BK118" t="e">
-        <f>VLOOKUP(A118,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="119" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>189</v>
       </c>
@@ -38835,12 +38273,8 @@
       <c r="BI119" s="5">
         <v>3486.9938834675199</v>
       </c>
-      <c r="BK119" t="e">
-        <f>VLOOKUP(A119,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="120" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>285</v>
       </c>
@@ -38994,12 +38428,8 @@
       <c r="BI120" s="5">
         <v>3483.1506517865701</v>
       </c>
-      <c r="BK120" t="e">
-        <f>VLOOKUP(A120,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="121" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>281</v>
       </c>
@@ -39150,12 +38580,8 @@
       <c r="BI121" s="5">
         <v>3459.3670064427401</v>
       </c>
-      <c r="BK121" t="e">
-        <f>VLOOKUP(A121,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="122" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>483</v>
       </c>
@@ -39276,12 +38702,8 @@
       <c r="BI122" s="5">
         <v>3435.67164108935</v>
       </c>
-      <c r="BK122" t="e">
-        <f>VLOOKUP(A122,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="123" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>231</v>
       </c>
@@ -39366,12 +38788,8 @@
       <c r="BI123" s="5">
         <v>3398.0831841811901</v>
       </c>
-      <c r="BK123" t="e">
-        <f>VLOOKUP(A123,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="124" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>395</v>
       </c>
@@ -39450,12 +38868,8 @@
       <c r="BI124" s="5">
         <v>3288.2749057895899</v>
       </c>
-      <c r="BK124" t="e">
-        <f>VLOOKUP(A124,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="125" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>399</v>
       </c>
@@ -39579,12 +38993,8 @@
       <c r="BI125" s="5">
         <v>3287.5297138177398</v>
       </c>
-      <c r="BK125" t="e">
-        <f>VLOOKUP(A125,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="126" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>379</v>
       </c>
@@ -39735,12 +39145,8 @@
       <c r="BI126" s="5">
         <v>3255.4421565764001</v>
       </c>
-      <c r="BK126" t="e">
-        <f>VLOOKUP(A126,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="127" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>169</v>
       </c>
@@ -39810,12 +39216,8 @@
       <c r="BI127" s="5">
         <v>3252.2267182118899</v>
       </c>
-      <c r="BK127" t="e">
-        <f>VLOOKUP(A127,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="128" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>481</v>
       </c>
@@ -39900,12 +39302,8 @@
       <c r="BI128" s="5">
         <v>3175.4102879676998</v>
       </c>
-      <c r="BK128" t="e">
-        <f>VLOOKUP(A128,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="129" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>327</v>
       </c>
@@ -39990,12 +39388,8 @@
       <c r="BI129" s="5">
         <v>3157.9183916031998</v>
       </c>
-      <c r="BK129" t="e">
-        <f>VLOOKUP(A129,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="130" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>139</v>
       </c>
@@ -40149,12 +39543,8 @@
       <c r="BI130" s="5">
         <v>3126.7199923579201</v>
       </c>
-      <c r="BK130" t="e">
-        <f>VLOOKUP(A130,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="131" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>125</v>
       </c>
@@ -40308,12 +39698,8 @@
       <c r="BI131" s="5">
         <v>3104.1182957490901</v>
       </c>
-      <c r="BK131" t="e">
-        <f>VLOOKUP(A131,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="132" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>25</v>
       </c>
@@ -40380,12 +39766,8 @@
       <c r="BI132" s="5">
         <v>3087.8099803230002</v>
       </c>
-      <c r="BK132" t="e">
-        <f>VLOOKUP(A132,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="133" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>35</v>
       </c>
@@ -40455,12 +39837,8 @@
       <c r="BI133" s="5">
         <v>2874.7611952301299</v>
       </c>
-      <c r="BK133" t="e">
-        <f>VLOOKUP(A133,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="134" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>217</v>
       </c>
@@ -40614,12 +39992,8 @@
       <c r="BI134" s="5">
         <v>2817.0183341663101</v>
       </c>
-      <c r="BK134" t="e">
-        <f>VLOOKUP(A134,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="135" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>129</v>
       </c>
@@ -40773,12 +40147,8 @@
       <c r="BI135" s="5">
         <v>2803.6393618023599</v>
       </c>
-      <c r="BK135" t="e">
-        <f>VLOOKUP(A135,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="136" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>491</v>
       </c>
@@ -40932,12 +40302,8 @@
       <c r="BI136" s="5">
         <v>2788.2382587134698</v>
       </c>
-      <c r="BK136" t="e">
-        <f>VLOOKUP(A136,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="137" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>331</v>
       </c>
@@ -41058,12 +40424,8 @@
       <c r="BI137" s="5">
         <v>2676.8073911617698</v>
       </c>
-      <c r="BK137" t="e">
-        <f>VLOOKUP(A137,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="138" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>61</v>
       </c>
@@ -41217,12 +40579,8 @@
       <c r="BI138" s="5">
         <v>2528.41688218011</v>
       </c>
-      <c r="BK138" t="e">
-        <f>VLOOKUP(A138,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="139" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>453</v>
       </c>
@@ -41316,12 +40674,8 @@
       <c r="BI139" s="5">
         <v>2381.91194264562</v>
       </c>
-      <c r="BK139" t="e">
-        <f>VLOOKUP(A139,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="140" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>69</v>
       </c>
@@ -41445,12 +40799,8 @@
       <c r="BI140" s="5">
         <v>2199.2456887129802</v>
       </c>
-      <c r="BK140" t="e">
-        <f>VLOOKUP(A140,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="141" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>99</v>
       </c>
@@ -41574,12 +40924,8 @@
       <c r="BI141" s="5">
         <v>2178.4522926837399</v>
       </c>
-      <c r="BK141" t="e">
-        <f>VLOOKUP(A141,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="142" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>253</v>
       </c>
@@ -41703,12 +41049,8 @@
       <c r="BI142" s="5">
         <v>2139.2004819137201</v>
       </c>
-      <c r="BK142" t="e">
-        <f>VLOOKUP(A142,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="143" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>383</v>
       </c>
@@ -41832,12 +41174,8 @@
       <c r="BI143" s="5">
         <v>2056.8310794502199</v>
       </c>
-      <c r="BK143" t="e">
-        <f>VLOOKUP(A143,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="144" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>199</v>
       </c>
@@ -41988,12 +41326,8 @@
       <c r="BI144" s="5">
         <v>2049.15790861298</v>
       </c>
-      <c r="BK144" t="e">
-        <f>VLOOKUP(A144,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="145" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>479</v>
       </c>
@@ -42015,12 +41349,8 @@
       <c r="BI145" s="5">
         <v>1904.0063346172899</v>
       </c>
-      <c r="BK145" t="e">
-        <f>VLOOKUP(A145,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="146" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>305</v>
       </c>
@@ -42099,12 +41429,8 @@
       <c r="BI146" s="5">
         <v>1896.2244170844299</v>
       </c>
-      <c r="BK146" t="e">
-        <f>VLOOKUP(A146,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="147" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>509</v>
       </c>
@@ -42174,12 +41500,8 @@
       <c r="BI147" s="5">
         <v>1885.9113031194499</v>
       </c>
-      <c r="BK147" t="e">
-        <f>VLOOKUP(A147,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="148" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>355</v>
       </c>
@@ -42276,12 +41598,8 @@
       <c r="BI148" s="5">
         <v>1875.7711514313</v>
       </c>
-      <c r="BK148" t="e">
-        <f>VLOOKUP(A148,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="149" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>353</v>
       </c>
@@ -42435,12 +41753,8 @@
       <c r="BI149" s="5">
         <v>1830.84155886947</v>
       </c>
-      <c r="BK149" t="e">
-        <f>VLOOKUP(A149,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="150" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>519</v>
       </c>
@@ -42537,12 +41851,8 @@
       <c r="BI150" s="5">
         <v>1810.3112163687699</v>
       </c>
-      <c r="BK150" t="e">
-        <f>VLOOKUP(A150,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="151" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -42651,12 +41961,8 @@
       <c r="BI151" s="5">
         <v>1777.4484102621</v>
       </c>
-      <c r="BK151" t="e">
-        <f>VLOOKUP(A151,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="152" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>283</v>
       </c>
@@ -42810,12 +42116,8 @@
       <c r="BI152" s="5">
         <v>1771.12294792485</v>
       </c>
-      <c r="BK152" t="e">
-        <f>VLOOKUP(A152,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="153" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>263</v>
       </c>
@@ -42927,12 +42229,8 @@
       <c r="BI153" s="5">
         <v>1752.6501099265299</v>
       </c>
-      <c r="BK153" t="e">
-        <f>VLOOKUP(A153,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="154" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>215</v>
       </c>
@@ -43086,12 +42384,8 @@
       <c r="BI154" s="5">
         <v>1579.60385649523</v>
       </c>
-      <c r="BK154" t="e">
-        <f>VLOOKUP(A154,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="155" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>223</v>
       </c>
@@ -43245,12 +42539,8 @@
       <c r="BI155" s="5">
         <v>1461.62402900863</v>
       </c>
-      <c r="BK155" t="e">
-        <f>VLOOKUP(A155,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="156" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>373</v>
       </c>
@@ -43404,12 +42694,8 @@
       <c r="BI156" s="5">
         <v>1443.6665833483901</v>
       </c>
-      <c r="BK156" t="e">
-        <f>VLOOKUP(A156,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="157" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>413</v>
       </c>
@@ -43563,12 +42849,8 @@
       <c r="BI157" s="5">
         <v>1440.0759438948201</v>
       </c>
-      <c r="BK157" t="e">
-        <f>VLOOKUP(A157,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="158" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>485</v>
       </c>
@@ -43722,12 +43004,8 @@
       <c r="BI158" s="5">
         <v>1440.0759438948201</v>
       </c>
-      <c r="BK158" t="e">
-        <f>VLOOKUP(A158,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="159" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>423</v>
       </c>
@@ -43851,12 +43129,8 @@
       <c r="BI159" s="5">
         <v>1421.18821280159</v>
       </c>
-      <c r="BK159" t="e">
-        <f>VLOOKUP(A159,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="160" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>87</v>
       </c>
@@ -44007,12 +43281,8 @@
       <c r="BI160" s="5">
         <v>1406.3112465781001</v>
       </c>
-      <c r="BK160" t="e">
-        <f>VLOOKUP(A160,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="161" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>45</v>
       </c>
@@ -44157,12 +43427,8 @@
       <c r="BI161" s="5">
         <v>1310.14775227782</v>
       </c>
-      <c r="BK161" t="e">
-        <f>VLOOKUP(A161,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="162" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>247</v>
       </c>
@@ -44313,12 +43579,8 @@
       <c r="BI162" s="5">
         <v>1225.77148985191</v>
       </c>
-      <c r="BK162" t="e">
-        <f>VLOOKUP(A162,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="163" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>153</v>
       </c>
@@ -44376,12 +43638,8 @@
       <c r="BI163" s="5">
         <v>1193.64564934648</v>
       </c>
-      <c r="BK163" t="e">
-        <f>VLOOKUP(A163,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="164" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>439</v>
       </c>
@@ -44532,12 +43790,8 @@
       <c r="BI164" s="5">
         <v>1148.8046080552799</v>
       </c>
-      <c r="BK164" t="e">
-        <f>VLOOKUP(A164,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="165" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>487</v>
       </c>
@@ -44688,12 +43942,8 @@
       <c r="BI165" s="5">
         <v>1148.8046080552799</v>
       </c>
-      <c r="BK165" t="e">
-        <f>VLOOKUP(A165,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="166" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>89</v>
       </c>
@@ -44844,12 +44094,8 @@
       <c r="BI166" s="5">
         <v>1147.9901816050599</v>
       </c>
-      <c r="BK166" t="e">
-        <f>VLOOKUP(A166,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="167" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>435</v>
       </c>
@@ -45000,12 +44246,8 @@
       <c r="BI167" s="5">
         <v>1147.7432514900099</v>
       </c>
-      <c r="BK167" t="e">
-        <f>VLOOKUP(A167,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="168" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>213</v>
       </c>
@@ -45150,12 +44392,8 @@
       <c r="BI168" s="5">
         <v>1103.17013268244</v>
       </c>
-      <c r="BK168" t="e">
-        <f>VLOOKUP(A168,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="169" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>325</v>
       </c>
@@ -45219,12 +44457,8 @@
       <c r="BI169" s="5">
         <v>1087.3659895175499</v>
       </c>
-      <c r="BK169" t="e">
-        <f>VLOOKUP(A169,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="170" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>387</v>
       </c>
@@ -45348,12 +44582,8 @@
       <c r="BI170" s="5">
         <v>1077.268882266</v>
       </c>
-      <c r="BK170" t="e">
-        <f>VLOOKUP(A170,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="171" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>251</v>
       </c>
@@ -45432,12 +44662,8 @@
       <c r="BI171" s="5">
         <v>1055.9493816895699</v>
       </c>
-      <c r="BK171" t="e">
-        <f>VLOOKUP(A171,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="172" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>533</v>
       </c>
@@ -45588,12 +44814,8 @@
       <c r="BI172" s="5">
         <v>966.60729146685105</v>
       </c>
-      <c r="BK172" t="e">
-        <f>VLOOKUP(A172,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="173" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>287</v>
       </c>
@@ -45717,12 +44939,8 @@
       <c r="BI173" s="5">
         <v>965.71851936658697</v>
       </c>
-      <c r="BK173" t="e">
-        <f>VLOOKUP(A173,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="174" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -45873,12 +45091,8 @@
       <c r="BI174" s="5">
         <v>952.58472093665</v>
       </c>
-      <c r="BK174" t="e">
-        <f>VLOOKUP(A174,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="175" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>529</v>
       </c>
@@ -45972,12 +45186,8 @@
       <c r="BI175" s="5">
         <v>933.82546853600695</v>
       </c>
-      <c r="BK175" t="e">
-        <f>VLOOKUP(A175,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="176" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>93</v>
       </c>
@@ -46128,12 +45338,8 @@
       <c r="BI176" s="5">
         <v>900.88035719921004</v>
       </c>
-      <c r="BK176" t="e">
-        <f>VLOOKUP(A176,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="177" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>219</v>
       </c>
@@ -46257,12 +45463,8 @@
       <c r="BI177" s="5">
         <v>862.85194341031195</v>
       </c>
-      <c r="BK177" t="e">
-        <f>VLOOKUP(A177,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="178" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>473</v>
       </c>
@@ -46314,12 +45516,8 @@
       <c r="BI178" s="5">
         <v>818.22339492994297</v>
       </c>
-      <c r="BK178" t="e">
-        <f>VLOOKUP(A178,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="179" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>419</v>
       </c>
@@ -46470,12 +45668,8 @@
       <c r="BI179" s="5">
         <v>803.16313895200096</v>
       </c>
-      <c r="BK179" t="e">
-        <f>VLOOKUP(A179,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="180" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>275</v>
       </c>
@@ -46584,12 +45778,8 @@
       <c r="BI180" s="5">
         <v>788.29645401744006</v>
       </c>
-      <c r="BK180" t="e">
-        <f>VLOOKUP(A180,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="181" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>249</v>
       </c>
@@ -46662,12 +45852,8 @@
       <c r="BI181" s="5">
         <v>783.73160009816297</v>
       </c>
-      <c r="BK181" t="e">
-        <f>VLOOKUP(A181,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="182" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>443</v>
       </c>
@@ -46728,12 +45914,8 @@
       <c r="BI182" s="5">
         <v>758.19452120685298</v>
       </c>
-      <c r="BK182" t="e">
-        <f>VLOOKUP(A182,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="183" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>535</v>
       </c>
@@ -46884,12 +46066,8 @@
       <c r="BI183" s="5">
         <v>750.48416534221303</v>
       </c>
-      <c r="BK183" t="e">
-        <f>VLOOKUP(A183,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="184" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>97</v>
       </c>
@@ -47013,12 +46191,8 @@
       <c r="BI184" s="5">
         <v>716.02229338276004</v>
       </c>
-      <c r="BK184" t="e">
-        <f>VLOOKUP(A184,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="185" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>205</v>
       </c>
@@ -47094,12 +46268,8 @@
       <c r="BI185" s="5">
         <v>693.885585185943</v>
       </c>
-      <c r="BK185" t="e">
-        <f>VLOOKUP(A185,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="186" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>201</v>
       </c>
@@ -47223,12 +46393,8 @@
       <c r="BI186" s="5">
         <v>685.79946928738298</v>
       </c>
-      <c r="BK186" t="e">
-        <f>VLOOKUP(A186,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="187" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>361</v>
       </c>
@@ -47379,12 +46545,8 @@
       <c r="BI187" s="5">
         <v>681.08298266786801</v>
       </c>
-      <c r="BK187" t="e">
-        <f>VLOOKUP(A187,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="188" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>337</v>
       </c>
@@ -47508,12 +46670,8 @@
       <c r="BI188" s="5">
         <v>674.32822959714895</v>
       </c>
-      <c r="BK188" t="e">
-        <f>VLOOKUP(A188,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="189" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>41</v>
       </c>
@@ -47664,12 +46822,8 @@
       <c r="BI189" s="5">
         <v>656.848007579973</v>
       </c>
-      <c r="BK189" t="e">
-        <f>VLOOKUP(A189,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="190" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>321</v>
       </c>
@@ -47793,12 +46947,8 @@
       <c r="BI190" s="5">
         <v>582.68232373973103</v>
       </c>
-      <c r="BK190" t="e">
-        <f>VLOOKUP(A190,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="191" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>277</v>
       </c>
@@ -47904,12 +47054,8 @@
       <c r="BI191" s="5">
         <v>582.01516381140198</v>
       </c>
-      <c r="BK191" t="e">
-        <f>VLOOKUP(A191,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="192" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>411</v>
       </c>
@@ -48033,12 +47179,8 @@
       <c r="BI192" s="5">
         <v>546.60591959780504</v>
       </c>
-      <c r="BK192" t="e">
-        <f>VLOOKUP(A192,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="193" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>463</v>
       </c>
@@ -48162,12 +47304,8 @@
       <c r="BI193" s="5">
         <v>535.67677831771402</v>
       </c>
-      <c r="BK193" t="e">
-        <f>VLOOKUP(A193,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="194" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>149</v>
       </c>
@@ -48288,12 +47426,8 @@
       <c r="BI194" s="5">
         <v>522.80827985770304</v>
       </c>
-      <c r="BK194" t="e">
-        <f>VLOOKUP(A194,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="195" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>179</v>
       </c>
@@ -48417,12 +47551,8 @@
       <c r="BI195" s="5">
         <v>496.16437037050702</v>
       </c>
-      <c r="BK195" t="e">
-        <f>VLOOKUP(A195,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="196" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>11</v>
       </c>
@@ -48519,12 +47649,8 @@
       <c r="BI196" s="5">
         <v>489.78474139664303</v>
       </c>
-      <c r="BK196" t="e">
-        <f>VLOOKUP(A196,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="197" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>175</v>
       </c>
@@ -48630,12 +47756,8 @@
       <c r="BI197" s="5">
         <v>463.96234290255597</v>
       </c>
-      <c r="BK197" t="e">
-        <f>VLOOKUP(A197,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="198" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>43</v>
       </c>
@@ -48759,12 +47881,8 @@
       <c r="BI198" s="5">
         <v>455.14298181103601</v>
       </c>
-      <c r="BK198" t="e">
-        <f>VLOOKUP(A198,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="199" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>469</v>
       </c>
@@ -48915,12 +48033,8 @@
       <c r="BI199" s="5">
         <v>397.06847300954001</v>
       </c>
-      <c r="BK199" t="e">
-        <f>VLOOKUP(A199,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="200" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>499</v>
       </c>
@@ -49044,12 +48158,8 @@
       <c r="BI200" s="5">
         <v>394.29003661495801</v>
       </c>
-      <c r="BK200" t="e">
-        <f>VLOOKUP(A200,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="201" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>425</v>
       </c>
@@ -49173,12 +48283,8 @@
       <c r="BI201" s="5">
         <v>361.88946601926</v>
       </c>
-      <c r="BK201" t="e">
-        <f>VLOOKUP(A201,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="202" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>307</v>
       </c>
@@ -49302,12 +48408,8 @@
       <c r="BI202" s="5">
         <v>357.91669062854101</v>
       </c>
-      <c r="BK202" t="e">
-        <f>VLOOKUP(A202,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="203" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>91</v>
       </c>
@@ -49458,12 +48560,8 @@
       <c r="BI203" s="5">
         <v>331.97694047594098</v>
       </c>
-      <c r="BK203" t="e">
-        <f>VLOOKUP(A203,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="204" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>177</v>
       </c>
@@ -49587,12 +48685,8 @@
       <c r="BI204" s="5">
         <v>318.79016988632497</v>
       </c>
-      <c r="BK204" t="e">
-        <f>VLOOKUP(A204,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="205" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>73</v>
       </c>
@@ -49716,12 +48810,8 @@
       <c r="BI205" s="5">
         <v>299.12705111275801</v>
       </c>
-      <c r="BK205" t="e">
-        <f>VLOOKUP(A205,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="206" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>335</v>
       </c>
@@ -49845,12 +48935,8 @@
       <c r="BI206" s="5">
         <v>297.13599636105698</v>
       </c>
-      <c r="BK206" t="e">
-        <f>VLOOKUP(A206,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="207" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>351</v>
       </c>
@@ -49974,12 +49060,8 @@
       <c r="BI207" s="5">
         <v>292.24729845458597</v>
       </c>
-      <c r="BK207" t="e">
-        <f>VLOOKUP(A207,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="208" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>267</v>
       </c>
@@ -50082,12 +49164,8 @@
       <c r="BI208" s="5">
         <v>241.22577666786501</v>
       </c>
-      <c r="BK208" t="e">
-        <f>VLOOKUP(A208,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="209" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>37</v>
       </c>
@@ -50211,12 +49289,8 @@
       <c r="BI209" s="5">
         <v>201.70060775651601</v>
       </c>
-      <c r="BK209" t="e">
-        <f>VLOOKUP(A209,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="210" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>341</v>
       </c>
@@ -50340,12 +49414,8 @@
       <c r="BI210" s="5">
         <v>200.94534849850299</v>
       </c>
-      <c r="BK210" t="e">
-        <f>VLOOKUP(A210,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="211" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -50358,12 +49428,8 @@
       <c r="D211" t="s">
         <v>10</v>
       </c>
-      <c r="BK211" t="e">
-        <f>VLOOKUP(A211,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="212" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>17</v>
       </c>
@@ -50376,12 +49442,8 @@
       <c r="D212" t="s">
         <v>10</v>
       </c>
-      <c r="BK212" t="e">
-        <f>VLOOKUP(A212,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="213" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>27</v>
       </c>
@@ -50394,12 +49456,8 @@
       <c r="D213" t="s">
         <v>10</v>
       </c>
-      <c r="BK213" t="e">
-        <f>VLOOKUP(A213,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="214" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>29</v>
       </c>
@@ -50412,12 +49470,8 @@
       <c r="D214" t="s">
         <v>10</v>
       </c>
-      <c r="BK214" t="e">
-        <f>VLOOKUP(A214,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="215" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>59</v>
       </c>
@@ -50430,12 +49484,8 @@
       <c r="D215" t="s">
         <v>10</v>
       </c>
-      <c r="BK215" t="e">
-        <f>VLOOKUP(A215,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="216" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>81</v>
       </c>
@@ -50448,12 +49498,8 @@
       <c r="D216" t="s">
         <v>10</v>
       </c>
-      <c r="BK216" t="e">
-        <f>VLOOKUP(A216,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="217" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>105</v>
       </c>
@@ -50598,12 +49644,8 @@
       <c r="BF217">
         <v>5791.9889700291797</v>
       </c>
-      <c r="BK217" t="e">
-        <f>VLOOKUP(A217,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="218" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>107</v>
       </c>
@@ -50616,12 +49658,8 @@
       <c r="D218" t="s">
         <v>10</v>
       </c>
-      <c r="BK218" t="e">
-        <f>VLOOKUP(A218,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="219" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>109</v>
       </c>
@@ -50634,12 +49672,8 @@
       <c r="D219" t="s">
         <v>10</v>
       </c>
-      <c r="BK219" t="e">
-        <f>VLOOKUP(A219,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="220" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>111</v>
       </c>
@@ -50775,12 +49809,8 @@
       <c r="BH220">
         <v>19572.218284552298</v>
       </c>
-      <c r="BK220" t="e">
-        <f>VLOOKUP(A220,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="221" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>113</v>
       </c>
@@ -50856,12 +49886,8 @@
       <c r="BF221">
         <v>14308.5331728489</v>
       </c>
-      <c r="BK221" t="e">
-        <f>VLOOKUP(A221,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="222" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>117</v>
       </c>
@@ -50919,12 +49945,8 @@
       <c r="AX222">
         <v>921.401644572907</v>
       </c>
-      <c r="BK222" t="e">
-        <f>VLOOKUP(A222,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="223" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>143</v>
       </c>
@@ -50994,12 +50016,8 @@
       <c r="BD223">
         <v>433.36177988177502</v>
       </c>
-      <c r="BK223" t="e">
-        <f>VLOOKUP(A223,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="224" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>161</v>
       </c>
@@ -51012,12 +50030,8 @@
       <c r="D224" t="s">
         <v>10</v>
       </c>
-      <c r="BK224" t="e">
-        <f>VLOOKUP(A224,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="225" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>163</v>
       </c>
@@ -51030,12 +50044,8 @@
       <c r="D225" t="s">
         <v>10</v>
       </c>
-      <c r="BK225" t="e">
-        <f>VLOOKUP(A225,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="226" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>173</v>
       </c>
@@ -51048,12 +50058,8 @@
       <c r="D226" t="s">
         <v>10</v>
       </c>
-      <c r="BK226" t="e">
-        <f>VLOOKUP(A226,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="227" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>185</v>
       </c>
@@ -51066,12 +50072,8 @@
       <c r="D227" t="s">
         <v>10</v>
       </c>
-      <c r="BK227" t="e">
-        <f>VLOOKUP(A227,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="228" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>187</v>
       </c>
@@ -51084,12 +50086,8 @@
       <c r="D228" t="s">
         <v>10</v>
       </c>
-      <c r="BK228" t="e">
-        <f>VLOOKUP(A228,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="229" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>191</v>
       </c>
@@ -51102,12 +50100,8 @@
       <c r="D229" t="s">
         <v>10</v>
       </c>
-      <c r="BK229" t="e">
-        <f>VLOOKUP(A229,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="230" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>197</v>
       </c>
@@ -51123,12 +50117,8 @@
       <c r="Y230">
         <v>5330.27144766736</v>
       </c>
-      <c r="BK230" t="e">
-        <f>VLOOKUP(A230,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="231" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>221</v>
       </c>
@@ -51141,12 +50131,8 @@
       <c r="D231" t="s">
         <v>10</v>
       </c>
-      <c r="BK231" t="e">
-        <f>VLOOKUP(A231,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="232" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>225</v>
       </c>
@@ -51159,12 +50145,8 @@
       <c r="D232" t="s">
         <v>10</v>
       </c>
-      <c r="BK232" t="e">
-        <f>VLOOKUP(A232,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="233" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>255</v>
       </c>
@@ -51177,12 +50159,8 @@
       <c r="D233" t="s">
         <v>10</v>
       </c>
-      <c r="BK233" t="e">
-        <f>VLOOKUP(A233,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="234" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>269</v>
       </c>
@@ -51225,12 +50203,8 @@
       <c r="BD234">
         <v>4843.9909645780599</v>
       </c>
-      <c r="BK234" t="e">
-        <f>VLOOKUP(A234,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="235" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>279</v>
       </c>
@@ -51243,12 +50217,8 @@
       <c r="D235" t="s">
         <v>10</v>
       </c>
-      <c r="BK235" t="e">
-        <f>VLOOKUP(A235,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="236" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>297</v>
       </c>
@@ -51261,12 +50231,8 @@
       <c r="D236" t="s">
         <v>10</v>
       </c>
-      <c r="BK236" t="e">
-        <f>VLOOKUP(A236,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="237" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>299</v>
       </c>
@@ -51279,12 +50245,8 @@
       <c r="D237" t="s">
         <v>10</v>
       </c>
-      <c r="BK237" t="e">
-        <f>VLOOKUP(A237,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="238" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>301</v>
       </c>
@@ -51435,12 +50397,8 @@
       <c r="BH238">
         <v>2503.5774564440198</v>
       </c>
-      <c r="BK238" t="e">
-        <f>VLOOKUP(A238,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="239" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>303</v>
       </c>
@@ -51453,12 +50411,8 @@
       <c r="D239" t="s">
         <v>10</v>
       </c>
-      <c r="BK239" t="e">
-        <f>VLOOKUP(A239,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="240" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>315</v>
       </c>
@@ -51471,12 +50425,8 @@
       <c r="D240" t="s">
         <v>10</v>
       </c>
-      <c r="BK240" t="e">
-        <f>VLOOKUP(A240,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="241" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>323</v>
       </c>
@@ -51489,12 +50439,8 @@
       <c r="D241" t="s">
         <v>10</v>
       </c>
-      <c r="BK241" t="e">
-        <f>VLOOKUP(A241,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="242" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>333</v>
       </c>
@@ -51507,12 +50453,8 @@
       <c r="D242" t="s">
         <v>10</v>
       </c>
-      <c r="BK242" t="e">
-        <f>VLOOKUP(A242,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="243" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>349</v>
       </c>
@@ -51525,12 +50467,8 @@
       <c r="D243" t="s">
         <v>10</v>
       </c>
-      <c r="BK243" t="e">
-        <f>VLOOKUP(A243,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="244" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>363</v>
       </c>
@@ -51543,12 +50481,8 @@
       <c r="D244" t="s">
         <v>10</v>
       </c>
-      <c r="BK244" t="e">
-        <f>VLOOKUP(A244,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="245" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>369</v>
       </c>
@@ -51699,12 +50633,8 @@
       <c r="BH245">
         <v>10652.7579011039</v>
       </c>
-      <c r="BK245" t="e">
-        <f>VLOOKUP(A245,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="246" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>371</v>
       </c>
@@ -51753,12 +50683,8 @@
       <c r="BH246">
         <v>9950.4371327218596</v>
       </c>
-      <c r="BK246" t="e">
-        <f>VLOOKUP(A246,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="247" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>381</v>
       </c>
@@ -51771,12 +50697,8 @@
       <c r="D247" t="s">
         <v>10</v>
       </c>
-      <c r="BK247" t="e">
-        <f>VLOOKUP(A247,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="248" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>389</v>
       </c>
@@ -51789,12 +50711,8 @@
       <c r="D248" t="s">
         <v>10</v>
       </c>
-      <c r="BK248" t="e">
-        <f>VLOOKUP(A248,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="249" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>391</v>
       </c>
@@ -51807,12 +50725,8 @@
       <c r="D249" t="s">
         <v>10</v>
       </c>
-      <c r="BK249" t="e">
-        <f>VLOOKUP(A249,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="250" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>397</v>
       </c>
@@ -51825,12 +50739,8 @@
       <c r="D250" t="s">
         <v>10</v>
       </c>
-      <c r="BK250" t="e">
-        <f>VLOOKUP(A250,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="251" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>403</v>
       </c>
@@ -51843,12 +50753,8 @@
       <c r="D251" t="s">
         <v>10</v>
       </c>
-      <c r="BK251" t="e">
-        <f>VLOOKUP(A251,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="252" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>405</v>
       </c>
@@ -51981,12 +50887,8 @@
       <c r="BH252">
         <v>50409.752092909301</v>
       </c>
-      <c r="BK252" t="e">
-        <f>VLOOKUP(A252,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="253" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>409</v>
       </c>
@@ -52071,12 +50973,8 @@
       <c r="BH253">
         <v>7314.8018605118104</v>
       </c>
-      <c r="BK253" t="e">
-        <f>VLOOKUP(A253,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="254" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>417</v>
       </c>
@@ -52104,12 +51002,8 @@
       <c r="BH254">
         <v>2015.7362952410101</v>
       </c>
-      <c r="BK254" t="e">
-        <f>VLOOKUP(A254,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="255" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>429</v>
       </c>
@@ -52122,12 +51016,8 @@
       <c r="D255" t="s">
         <v>10</v>
       </c>
-      <c r="BK255" t="e">
-        <f>VLOOKUP(A255,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="256" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>431</v>
       </c>
@@ -52140,12 +51030,8 @@
       <c r="D256" t="s">
         <v>10</v>
       </c>
-      <c r="BK256" t="e">
-        <f>VLOOKUP(A256,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="257" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>437</v>
       </c>
@@ -52173,12 +51059,8 @@
       <c r="BH257">
         <v>563.34822581623996</v>
       </c>
-      <c r="BK257" t="e">
-        <f>VLOOKUP(A257,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="258" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>455</v>
       </c>
@@ -52191,12 +51073,8 @@
       <c r="D258" t="s">
         <v>10</v>
       </c>
-      <c r="BK258" t="e">
-        <f>VLOOKUP(A258,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="259" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>459</v>
       </c>
@@ -52323,12 +51201,8 @@
       <c r="AZ259">
         <v>1636.13081944026</v>
       </c>
-      <c r="BK259" t="e">
-        <f>VLOOKUP(A259,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="260" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>461</v>
       </c>
@@ -52341,12 +51215,8 @@
       <c r="D260" t="s">
         <v>10</v>
       </c>
-      <c r="BK260" t="e">
-        <f>VLOOKUP(A260,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="261" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>475</v>
       </c>
@@ -52401,12 +51271,8 @@
       <c r="BD261">
         <v>3499.4203935703099</v>
       </c>
-      <c r="BK261" t="e">
-        <f>VLOOKUP(A261,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="262" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>495</v>
       </c>
@@ -52419,12 +51285,8 @@
       <c r="D262" t="s">
         <v>10</v>
       </c>
-      <c r="BK262" t="e">
-        <f>VLOOKUP(A262,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="263" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>497</v>
       </c>
@@ -52521,12 +51383,8 @@
       <c r="BH263">
         <v>779.16022375669604</v>
       </c>
-      <c r="BK263" t="e">
-        <f>VLOOKUP(A263,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="264" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>501</v>
       </c>
@@ -52602,12 +51460,8 @@
       <c r="BH264">
         <v>1805.29955708889</v>
       </c>
-      <c r="BK264" t="e">
-        <f>VLOOKUP(A264,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="265" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>513</v>
       </c>
@@ -52755,12 +51609,8 @@
       <c r="BG265">
         <v>14451.474682174699</v>
       </c>
-      <c r="BK265" t="e">
-        <f>VLOOKUP(A265,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="266" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>515</v>
       </c>
@@ -52773,12 +51623,8 @@
       <c r="D266" t="s">
         <v>10</v>
       </c>
-      <c r="BK266" t="e">
-        <f>VLOOKUP(A266,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="267" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>517</v>
       </c>
@@ -52791,12 +51637,8 @@
       <c r="D267" t="s">
         <v>10</v>
       </c>
-      <c r="BK267" t="e">
-        <f>VLOOKUP(A267,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="268" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>521</v>
       </c>
@@ -52914,12 +51756,8 @@
       <c r="BG268">
         <v>2864.4479773686198</v>
       </c>
-      <c r="BK268" t="e">
-        <f>VLOOKUP(A268,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="269" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>527</v>
       </c>
@@ -52931,10 +51769,6 @@
       </c>
       <c r="D269" t="s">
         <v>10</v>
-      </c>
-      <c r="BK269" t="e">
-        <f>VLOOKUP(A269,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -52943,19 +51777,6 @@
       <sortCondition descending="1" ref="BI5:BI269"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="BK6:BK269">
-    <cfRule type="top10" dxfId="13" priority="2" percent="1" rank="10"/>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -54501,8 +53322,8 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:B190">
-    <cfRule type="top10" dxfId="12" priority="2" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="11" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="1" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="0" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -54510,311 +53331,613 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91561C86-3B3D-B64C-8B72-07E1ACA5210B}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>540</v>
       </c>
       <c r="B1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D2" s="6">
+        <f>VLOOKUP(A2,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>32271.0717051879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D3" s="6">
+        <f>VLOOKUP(A3,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>43518.500634789802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D4" s="6">
+        <f>VLOOKUP(A4,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>45727.889969596399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D5" s="6">
+        <f>VLOOKUP(A5,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D6" s="6">
+        <f>VLOOKUP(A6,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>22172.113067230599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>545</v>
+      </c>
+      <c r="D7" s="6">
+        <f>VLOOKUP(A7,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>57982.863295516698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D8" s="6">
+        <f>VLOOKUP(A8,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>34167.086794531802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>545</v>
+      </c>
+      <c r="D9" s="6">
+        <f>VLOOKUP(A9,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>49574.325009535198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>545</v>
+      </c>
+      <c r="D10" s="6">
+        <f>VLOOKUP(A10,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>44237.727846859001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>545</v>
+      </c>
+      <c r="D11" s="6">
+        <f>VLOOKUP(A11,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>4014.9556308359101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>545</v>
+      </c>
+      <c r="D12" s="6">
+        <f>VLOOKUP(A12,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>14570.4090879168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>545</v>
+      </c>
+      <c r="D13" s="6">
+        <f>VLOOKUP(A13,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>35599.952653218403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>545</v>
+      </c>
+      <c r="D14" s="6">
+        <f>VLOOKUP(A14,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>10891.137924886099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>545</v>
+      </c>
+      <c r="D15" s="6">
+        <f>VLOOKUP(A15,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>38859.3225834615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>545</v>
+      </c>
+      <c r="D16" s="6">
+        <f>VLOOKUP(A16,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>3252.2267182118899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>545</v>
+      </c>
+      <c r="D17" s="6">
+        <f>VLOOKUP(A17,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>35517.598979001501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>545</v>
+      </c>
+      <c r="D18" s="6">
+        <f>VLOOKUP(A18,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>37783.765847069903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>545</v>
+      </c>
+      <c r="D19" s="6">
+        <f>VLOOKUP(A19,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>36635.901913338603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>459</v>
+      </c>
+      <c r="B20">
+        <v>173</v>
+      </c>
+      <c r="C20" t="s">
+        <v>546</v>
+      </c>
+      <c r="D20" s="6">
+        <f>VLOOKUP(A20,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21">
+        <v>174</v>
+      </c>
+      <c r="C21" t="s">
+        <v>546</v>
+      </c>
+      <c r="D21" s="6">
+        <f>VLOOKUP(A21,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>241.22577666786501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>479</v>
+      </c>
+      <c r="B22">
+        <v>175</v>
+      </c>
+      <c r="C22" t="s">
+        <v>546</v>
+      </c>
+      <c r="D22" s="6">
+        <f>VLOOKUP(A22,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>1904.0063346172899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>176</v>
+      </c>
+      <c r="C23" t="s">
+        <v>546</v>
+      </c>
+      <c r="D23" s="6">
+        <f>VLOOKUP(A23,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>1310.14775227782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24">
+        <v>177</v>
+      </c>
+      <c r="C24" t="s">
+        <v>546</v>
+      </c>
+      <c r="D24" s="6">
+        <f>VLOOKUP(A24,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>900.88035719921004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25">
+        <v>178</v>
+      </c>
+      <c r="C25" t="s">
+        <v>546</v>
+      </c>
+      <c r="D25" s="6">
+        <f>VLOOKUP(A25,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>3983.8233841203501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>529</v>
+      </c>
+      <c r="B26">
+        <v>179</v>
+      </c>
+      <c r="C26" t="s">
+        <v>546</v>
+      </c>
+      <c r="D26" s="6">
+        <f>VLOOKUP(A26,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>933.82546853600695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>463</v>
+      </c>
+      <c r="B27">
+        <v>180</v>
+      </c>
+      <c r="C27" t="s">
+        <v>546</v>
+      </c>
+      <c r="D27" s="6">
+        <f>VLOOKUP(A27,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>535.67677831771402</v>
+      </c>
+      <c r="J27" t="s">
+        <v>546</v>
+      </c>
+      <c r="K27" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28">
+        <v>181</v>
+      </c>
+      <c r="C28" t="s">
+        <v>546</v>
+      </c>
+      <c r="D28" s="6">
+        <f>VLOOKUP(A28,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>693.885585185943</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>182</v>
+      </c>
+      <c r="C29" t="s">
+        <v>546</v>
+      </c>
+      <c r="D29" s="6">
+        <f>VLOOKUP(A29,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>1777.4484102621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>183</v>
+      </c>
+      <c r="C30" t="s">
+        <v>546</v>
+      </c>
+      <c r="D30" s="6">
+        <f>VLOOKUP(A30,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>489.78474139664303</v>
+      </c>
+      <c r="I30" t="s">
+        <v>548</v>
+      </c>
+      <c r="J30" s="6">
+        <f>SUMIFS($D:$D,$C:$C,J27)</f>
+        <v>35642.534522815258</v>
+      </c>
+      <c r="K30" s="6">
+        <f>SUMIFS($D:$D,$C:$C,K27)</f>
+        <v>546776.84966118797</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31">
+        <v>184</v>
+      </c>
+      <c r="C31" t="s">
+        <v>546</v>
+      </c>
+      <c r="D31" s="6">
+        <f>VLOOKUP(A31,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>331.97694047594098</v>
+      </c>
+      <c r="I31" t="s">
+        <v>550</v>
+      </c>
+      <c r="J31">
+        <f>COUNTIFS($C:$C,J$27,$D:$D,"&lt;&gt;0")</f>
+        <v>16</v>
+      </c>
+      <c r="K31">
+        <f>COUNTIFS($C:$C,K$27,$D:$D,"&lt;&gt;0")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32">
+        <v>185</v>
+      </c>
+      <c r="C32" t="s">
+        <v>546</v>
+      </c>
+      <c r="D32" s="6">
+        <f>VLOOKUP(A32,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>299.12705111275801</v>
+      </c>
+      <c r="I32" t="s">
+        <v>551</v>
+      </c>
+      <c r="J32" s="7">
+        <f>J30/J31</f>
+        <v>2227.6584076759536</v>
+      </c>
+      <c r="K32" s="7">
+        <f>K30/K31</f>
+        <v>32163.344097716938</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>437</v>
+      </c>
+      <c r="B33">
+        <v>186</v>
+      </c>
+      <c r="C33" t="s">
+        <v>546</v>
+      </c>
+      <c r="D33" s="6">
+        <v>563.34799999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>513</v>
+      </c>
+      <c r="B34">
+        <v>187</v>
+      </c>
+      <c r="C34" t="s">
+        <v>546</v>
+      </c>
+      <c r="D34" s="6">
+        <v>14451.475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35">
+        <v>188</v>
+      </c>
+      <c r="C35" t="s">
+        <v>546</v>
+      </c>
+      <c r="D35" s="6">
+        <v>4843.991</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>453</v>
+      </c>
+      <c r="B36">
+        <v>189</v>
+      </c>
+      <c r="C36" t="s">
+        <v>546</v>
+      </c>
+      <c r="D36" s="6">
+        <f>VLOOKUP(A36,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>2381.91194264562</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>431</v>
       </c>
-      <c r="B2">
+      <c r="B37">
         <v>190</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>513</v>
-      </c>
-      <c r="B5">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>437</v>
-      </c>
-      <c r="B6">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B11">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>463</v>
-      </c>
-      <c r="B12">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>529</v>
-      </c>
-      <c r="B13">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>479</v>
-      </c>
-      <c r="B17">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>267</v>
-      </c>
-      <c r="B18">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>459</v>
-      </c>
-      <c r="B19">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>365</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>421</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>543</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>257</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>359</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>507</v>
-      </c>
-      <c r="B27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>451</v>
-      </c>
-      <c r="B28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>319</v>
-      </c>
-      <c r="B29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>147</v>
-      </c>
-      <c r="B30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>295</v>
-      </c>
-      <c r="B32">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>227</v>
-      </c>
-      <c r="B36">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37">
-        <v>19</v>
+      <c r="C37" t="s">
+        <v>546</v>
+      </c>
+      <c r="D37" s="6">
+        <f>VLOOKUP(A37,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$6:$BI$269,MATCH(2016,API_NY.ADJ.NNTY.PC.CD_DS2_en_cs!$A$5:$BJ$5),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{B8CC630B-4C1C-1B43-AF33-6CE022A9310C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>